--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19215" windowHeight="7110"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+  <si>
+    <t>TYPE</t>
+  </si>
   <si>
     <t>HEX</t>
   </si>
@@ -46,9 +49,6 @@
     <t>无操作</t>
   </si>
   <si>
-    <t>int操作</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -97,9 +97,6 @@
     <t>u4</t>
   </si>
   <si>
-    <t>char操作</t>
-  </si>
-  <si>
     <t>07</t>
   </si>
   <si>
@@ -109,16 +106,13 @@
     <t>u1</t>
   </si>
   <si>
-    <t>常量操作</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
     <t>push_const</t>
   </si>
   <si>
-    <t>将常量池种偏移量为arg1的常量push到栈</t>
+    <t>将常量池中偏移量为arg1的常量push到栈</t>
   </si>
   <si>
     <t>09</t>
@@ -127,10 +121,7 @@
     <t>store_const</t>
   </si>
   <si>
-    <t>将常量池种偏移量为arg1的常量存储到方法种偏移量为arg2的变量</t>
-  </si>
-  <si>
-    <t>栈操作</t>
+    <t>将常量池中偏移量为arg1的常量存储到方法中偏移量为arg2的变量</t>
   </si>
   <si>
     <t>0A</t>
@@ -139,22 +130,52 @@
     <t>pop</t>
   </si>
   <si>
-    <t>将栈顶弹出到偏移量为arg1的局部变量里</t>
+    <t>将栈顶pop到方法中偏移量为arg1的变量</t>
   </si>
   <si>
     <t>0B</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">将方法中偏移量为arg1的变量 以 常量池中偏移量为arg2的产量作为类名 初始化 （相当于call arg2, "_cinit"与pop arg1） </t>
+  </si>
+  <si>
     <t>0C</t>
   </si>
   <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>以arg1为对象的局部变量偏移量，arg2为方法符号调用方法的常量池偏移量调用方法并将结果push到栈顶</t>
+  </si>
+  <si>
     <t>0D</t>
   </si>
   <si>
+    <t>getField</t>
+  </si>
+  <si>
+    <t>以栈顶为对象，将对象中以arg1为偏移量的字段的值push到栈顶（常量类型则push在常量池中的偏移量）</t>
+  </si>
+  <si>
     <t>0E</t>
   </si>
   <si>
+    <t>putFieldv</t>
+  </si>
+  <si>
+    <t>以栈顶为对象，将对象中以arg1为偏移量的字段的值设置为栈顶的值</t>
+  </si>
+  <si>
     <t>0F</t>
+  </si>
+  <si>
+    <t>putFieldc</t>
+  </si>
+  <si>
+    <t>以栈顶为对象，将对象中以arg1为偏移量的字段的值设置为常量池中以arg2为</t>
   </si>
 </sst>
 </file>
@@ -167,14 +188,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,48 +652,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,97 +706,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -806,7 +820,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1130,7 +1144,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1140,47 +1154,48 @@
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="8.83333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.33333333333333" customWidth="1"/>
-    <col min="8" max="8" width="20.5833333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="74.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:8">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1245,47 +1260,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+    <row r="8" spans="2:8">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="28.5" customHeight="1" spans="1:8">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="19" customHeight="1" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" ht="42.75" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -1294,56 +1304,103 @@
         <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:8">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="2:8">
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
+    <row r="13" ht="28.5" spans="2:8">
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="2:8">
       <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>TYPE</t>
   </si>
@@ -40,6 +40,9 @@
     <t>description</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>无操作</t>
   </si>
   <si>
+    <t>pass;</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>将0 push到栈</t>
   </si>
   <si>
+    <t>stack.push(0);</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t>将1 push到栈</t>
   </si>
   <si>
+    <t>stack.push(1);</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -76,46 +88,97 @@
     <t>将-1 push到栈</t>
   </si>
   <si>
+    <t>stack.push(-1);</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>iconst</t>
+  </si>
+  <si>
+    <t>u1</t>
+  </si>
+  <si>
+    <t>将arg1 push到栈</t>
+  </si>
+  <si>
+    <t>stack.push(arg1);</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
-    <t>iconsts</t>
-  </si>
-  <si>
     <t>u2</t>
   </si>
   <si>
-    <t>将arg1 push到栈</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
-    <t>iconst</t>
-  </si>
-  <si>
     <t>u4</t>
   </si>
   <si>
     <t>07</t>
   </si>
   <si>
-    <t>cconst</t>
-  </si>
-  <si>
-    <t>u1</t>
+    <t>iadd</t>
+  </si>
+  <si>
+    <t>将栈顶两个数相加并将结果push到栈顶</t>
+  </si>
+  <si>
+    <t>stack.push( (stack.pop()) + (stack.pop()) );</t>
   </si>
   <si>
     <t>08</t>
   </si>
   <si>
+    <t>imin</t>
+  </si>
+  <si>
+    <t>将栈顶减去下一个栈顶的结果push进栈</t>
+  </si>
+  <si>
+    <t>top = stack.pop(); top_m1 = stack.pop(); stack.push(a-b);</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>imul</t>
+  </si>
+  <si>
+    <t>将栈顶两个数相乘</t>
+  </si>
+  <si>
+    <t>stack.push( (stack.pop()) * (stack.pop()) );</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>idiv</t>
+  </si>
+  <si>
+    <t>将栈顶作为被除数，将下一个栈顶作为除数，将结果push进栈</t>
+  </si>
+  <si>
+    <t>top = stack.pop(); top_m1 = stack.pop(); stack.push(a/b);</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
     <t>push_const</t>
   </si>
   <si>
     <t>将常量池中偏移量为arg1的常量push到栈</t>
   </si>
   <si>
-    <t>09</t>
+    <t>stack.push( cp_pool[arg1] );</t>
+  </si>
+  <si>
+    <t>0C</t>
   </si>
   <si>
     <t>store_const</t>
@@ -124,7 +187,10 @@
     <t>将常量池中偏移量为arg1的常量存储到方法中偏移量为arg2的变量</t>
   </si>
   <si>
-    <t>0A</t>
+    <t>localvar[arg2] = cp_pool[arg1];</t>
+  </si>
+  <si>
+    <t>0D</t>
   </si>
   <si>
     <t>pop</t>
@@ -133,25 +199,34 @@
     <t>将栈顶pop到方法中偏移量为arg1的变量</t>
   </si>
   <si>
-    <t>0B</t>
+    <t>localvar[arg1] = stack.pop();</t>
+  </si>
+  <si>
+    <t>0E</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t xml:space="preserve">将方法中偏移量为arg1的变量 以 常量池中偏移量为arg2的产量作为类名 初始化 （相当于call arg2, "_cinit"与pop arg1） </t>
-  </si>
-  <si>
-    <t>0C</t>
+    <t>以常量池中偏移量为arg1的常量为类名初始化，并将结果（对象）push到栈顶</t>
+  </si>
+  <si>
+    <t>stack.push( call(cp_pool[arg1], "_init", stack );</t>
+  </si>
+  <si>
+    <t>0F</t>
   </si>
   <si>
     <t>call</t>
   </si>
   <si>
-    <t>以arg1为对象的局部变量偏移量，arg2为方法符号调用方法的常量池偏移量调用方法并将结果push到栈顶</t>
-  </si>
-  <si>
-    <t>0D</t>
+    <t>以arg1为类名常量池中常量的偏移量，arg2为方法符号调用方法的常量池偏移量调用方法，以stack顶部的并将结果push到栈顶</t>
+  </si>
+  <si>
+    <t>stack.push( call(cp_pool[arg1], cp_pool[arg2], stack );</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>getField</t>
@@ -160,22 +235,79 @@
     <t>以栈顶为对象，将对象中以arg1为偏移量的字段的值push到栈顶（常量类型则push在常量池中的偏移量）</t>
   </si>
   <si>
-    <t>0E</t>
-  </si>
-  <si>
-    <t>putFieldv</t>
-  </si>
-  <si>
-    <t>以栈顶为对象，将对象中以arg1为偏移量的字段的值设置为栈顶的值</t>
-  </si>
-  <si>
-    <t>0F</t>
-  </si>
-  <si>
-    <t>putFieldc</t>
-  </si>
-  <si>
-    <t>以栈顶为对象，将对象中以arg1为偏移量的字段的值设置为常量池中以arg2为</t>
+    <t>obj = stack.pop(); stack.push( obj.fields[arg1] );</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>putField</t>
+  </si>
+  <si>
+    <t>以栈顶为对象，将对象中以arg1为偏移量的字段的值设置为下一个栈顶的值</t>
+  </si>
+  <si>
+    <t>obj = stack.pop(); obj.fields[arg1] = stack.pop();</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>sp_enter</t>
+  </si>
+  <si>
+    <t>进入频繁使用栈顶时期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-  </t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>sp_quit</t>
+  </si>
+  <si>
+    <t>退出频繁使用栈顶时期</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>1F</t>
   </si>
 </sst>
 </file>
@@ -797,30 +929,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1141,263 +1285,437 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.16666666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.66666666666667" style="2"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.83333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.33333333333333" customWidth="1"/>
-    <col min="8" max="8" width="74.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.16666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" style="3"/>
+    <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.83333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.33333333333333" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="81.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="54.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="B2" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="I6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="19" customHeight="1" spans="1:8">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="14" customHeight="1" spans="2:9">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:8">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:9">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="I9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="3" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="2:8">
-      <c r="B12" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="H10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="28.5" spans="2:8">
-      <c r="B13" s="2" t="s">
+    <row r="11" ht="14" customHeight="1" spans="2:9">
+      <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" ht="28.5" spans="2:8">
-      <c r="B14" s="2" t="s">
+      <c r="I11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
+      <c r="I12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="3" t="s">
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="2:9">
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="2:9">
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="2:9">
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t>TYPE</t>
   </si>
@@ -193,6 +193,18 @@
     <t>0D</t>
   </si>
   <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>将局部变量中偏移量为arg1的变量的值push进栈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack.push( local[var2] ); </t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
     <t>pop</t>
   </si>
   <si>
@@ -202,7 +214,7 @@
     <t>localvar[arg1] = stack.pop();</t>
   </si>
   <si>
-    <t>0E</t>
+    <t>0F</t>
   </si>
   <si>
     <t>new</t>
@@ -214,7 +226,7 @@
     <t>stack.push( call(cp_pool[arg1], "_init", stack );</t>
   </si>
   <si>
-    <t>0F</t>
+    <t>10</t>
   </si>
   <si>
     <t>call</t>
@@ -226,7 +238,7 @@
     <t>stack.push( call(cp_pool[arg1], cp_pool[arg2], stack );</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>getField</t>
@@ -238,7 +250,7 @@
     <t>obj = stack.pop(); stack.push( obj.fields[arg1] );</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>putField</t>
@@ -250,7 +262,7 @@
     <t>obj = stack.pop(); obj.fields[arg1] = stack.pop();</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>sp_enter</t>
@@ -262,7 +274,7 @@
     <t xml:space="preserve">-  </t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>sp_quit</t>
@@ -272,9 +284,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>15</t>
@@ -1288,7 +1297,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1566,9 +1575,6 @@
       <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H16" s="4" t="s">
         <v>64</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="2:9">
+    <row r="17" spans="2:9">
       <c r="B17" s="3" t="s">
         <v>66</v>
       </c>
@@ -1606,6 +1612,9 @@
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>72</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" ht="28.5" spans="2:9">
       <c r="B19" s="3" t="s">
         <v>74</v>
       </c>
@@ -1637,6 +1646,9 @@
       <c r="C20" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H20" s="4" t="s">
         <v>80</v>
       </c>
@@ -1658,64 +1670,73 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:9">
       <c r="B22" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -133,7 +133,7 @@
     <t>08</t>
   </si>
   <si>
-    <t>imin</t>
+    <t>isub</t>
   </si>
   <si>
     <t>将栈顶减去下一个栈顶的结果push进栈</t>
@@ -169,6 +169,9 @@
     <t>0B</t>
   </si>
   <si>
+    <t>0C</t>
+  </si>
+  <si>
     <t>push_const</t>
   </si>
   <si>
@@ -178,7 +181,7 @@
     <t>stack.push( cp_pool[arg1] );</t>
   </si>
   <si>
-    <t>0C</t>
+    <t>0D</t>
   </si>
   <si>
     <t>store_const</t>
@@ -190,7 +193,7 @@
     <t>localvar[arg2] = cp_pool[arg1];</t>
   </si>
   <si>
-    <t>0D</t>
+    <t>0E</t>
   </si>
   <si>
     <t>push</t>
@@ -202,7 +205,7 @@
     <t xml:space="preserve">stack.push( local[var2] ); </t>
   </si>
   <si>
-    <t>0E</t>
+    <t>0F</t>
   </si>
   <si>
     <t>pop</t>
@@ -214,7 +217,7 @@
     <t>localvar[arg1] = stack.pop();</t>
   </si>
   <si>
-    <t>0F</t>
+    <t>10</t>
   </si>
   <si>
     <t>new</t>
@@ -226,7 +229,7 @@
     <t>stack.push( call(cp_pool[arg1], "_init", stack );</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>call</t>
@@ -238,7 +241,7 @@
     <t>stack.push( call(cp_pool[arg1], cp_pool[arg2], stack );</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>getField</t>
@@ -250,7 +253,7 @@
     <t>obj = stack.pop(); stack.push( obj.fields[arg1] );</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>putField</t>
@@ -262,7 +265,7 @@
     <t>obj = stack.pop(); obj.fields[arg1] = stack.pop();</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>sp_enter</t>
@@ -274,7 +277,7 @@
     <t xml:space="preserve">-  </t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>sp_quit</t>
@@ -284,9 +287,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
   <si>
     <t>16</t>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1511,103 +1511,88 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>56</v>
+      <c r="H14" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H15" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" spans="2:9">
-      <c r="B18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
@@ -1616,76 +1601,91 @@
         <v>31</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="2:9">
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H19" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="2:9">
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
+      <c r="I23" s="5" t="s">
         <v>90</v>
       </c>
     </row>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="114">
   <si>
     <t>TYPE</t>
   </si>
@@ -34,15 +34,15 @@
     <t>arg3</t>
   </si>
   <si>
-    <t>arg4</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
@@ -55,6 +55,9 @@
     <t>pass;</t>
   </si>
   <si>
+    <t>Math</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
@@ -121,7 +124,7 @@
     <t>07</t>
   </si>
   <si>
-    <t>iadd</t>
+    <t>add</t>
   </si>
   <si>
     <t>将栈顶两个数相加并将结果push到栈顶</t>
@@ -133,7 +136,7 @@
     <t>08</t>
   </si>
   <si>
-    <t>isub</t>
+    <t>sub</t>
   </si>
   <si>
     <t>将栈顶减去下一个栈顶的结果push进栈</t>
@@ -145,7 +148,7 @@
     <t>09</t>
   </si>
   <si>
-    <t>imul</t>
+    <t>mul</t>
   </si>
   <si>
     <t>将栈顶两个数相乘</t>
@@ -157,7 +160,7 @@
     <t>0A</t>
   </si>
   <si>
-    <t>idiv</t>
+    <t>div</t>
   </si>
   <si>
     <t>将栈顶作为被除数，将下一个栈顶作为除数，将结果push进栈</t>
@@ -169,9 +172,54 @@
     <t>0B</t>
   </si>
   <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t>将栈顶作为对象，下一个栈顶作为除数，将求余的结果push进栈</t>
+  </si>
+  <si>
+    <t>obj = stack.pop(); dvder = stack.pop(); stack.push(obj % dvder);</t>
+  </si>
+  <si>
     <t>0C</t>
   </si>
   <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>求栈顶的相反数并将结果push到栈顶</t>
+  </si>
+  <si>
+    <t>stack.push( -(stack.pop()) );</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>将栈顶做底数，下一个栈顶作指数，将乘方的结果push进栈</t>
+  </si>
+  <si>
+    <t>base = stack.pop(); exp = stack.pop(); stack.push(base ^ exp);</t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
+    <t>0F</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>push_const</t>
   </si>
   <si>
@@ -181,7 +229,7 @@
     <t>stack.push( cp_pool[arg1] );</t>
   </si>
   <si>
-    <t>0D</t>
+    <t>13</t>
   </si>
   <si>
     <t>store_const</t>
@@ -193,7 +241,7 @@
     <t>localvar[arg2] = cp_pool[arg1];</t>
   </si>
   <si>
-    <t>0E</t>
+    <t>14</t>
   </si>
   <si>
     <t>push</t>
@@ -205,7 +253,7 @@
     <t xml:space="preserve">stack.push( local[var2] ); </t>
   </si>
   <si>
-    <t>0F</t>
+    <t>15</t>
   </si>
   <si>
     <t>pop</t>
@@ -217,7 +265,19 @@
     <t>localvar[arg1] = stack.pop();</t>
   </si>
   <si>
-    <t>10</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>dup</t>
+  </si>
+  <si>
+    <t>交换栈顶两个值</t>
+  </si>
+  <si>
+    <t>t1 = stack.pop(); t2 = stack.pop(); stack.push(t1); stack.push(t2);</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>new</t>
@@ -229,7 +289,7 @@
     <t>stack.push( call(cp_pool[arg1], "_init", stack );</t>
   </si>
   <si>
-    <t>11</t>
+    <t>18</t>
   </si>
   <si>
     <t>call</t>
@@ -241,7 +301,7 @@
     <t>stack.push( call(cp_pool[arg1], cp_pool[arg2], stack );</t>
   </si>
   <si>
-    <t>12</t>
+    <t>19</t>
   </si>
   <si>
     <t>getField</t>
@@ -253,7 +313,7 @@
     <t>obj = stack.pop(); stack.push( obj.fields[arg1] );</t>
   </si>
   <si>
-    <t>13</t>
+    <t>1A</t>
   </si>
   <si>
     <t>putField</t>
@@ -265,7 +325,7 @@
     <t>obj = stack.pop(); obj.fields[arg1] = stack.pop();</t>
   </si>
   <si>
-    <t>14</t>
+    <t>1B</t>
   </si>
   <si>
     <t>sp_enter</t>
@@ -277,7 +337,7 @@
     <t xml:space="preserve">-  </t>
   </si>
   <si>
-    <t>15</t>
+    <t>1C</t>
   </si>
   <si>
     <t>sp_quit</t>
@@ -287,27 +347,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>1C</t>
   </si>
   <si>
     <t>1D</t>
@@ -682,12 +721,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -799,7 +890,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,7 +920,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,28 +938,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,10 +968,10 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,42 +1029,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1294,25 +1394,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.16666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="3"/>
     <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.83333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.33333333333333" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="81.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="54.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="68" style="4" customWidth="1"/>
+    <col min="8" max="8" width="51.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1331,416 +1431,468 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:9">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="9"/>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="9"/>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="9"/>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12"/>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="5" t="s">
+    </row>
+    <row r="8" ht="14" customHeight="1" spans="1:8">
+      <c r="A8" s="12"/>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" ht="14" customHeight="1" spans="2:9">
-      <c r="B8" s="3" t="s">
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:8">
+      <c r="A9" s="12"/>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12"/>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="14" customHeight="1" spans="1:8">
+      <c r="A11" s="12"/>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="12"/>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="12"/>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="12"/>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="2:8">
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" ht="14" customHeight="1" spans="2:9">
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="G20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" ht="28.5" spans="2:9">
-      <c r="B19" s="3" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="D21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="2:9">
-      <c r="B20" s="3" t="s">
+    <row r="22" spans="2:8">
+      <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="3" t="s">
+    <row r="23" spans="2:8">
+      <c r="B23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="3" t="s">
+    <row r="24" spans="2:8">
+      <c r="B24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="3" t="s">
+    <row r="25" spans="2:8">
+      <c r="B25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="3" t="s">
+    <row r="26" ht="28.5" spans="2:8">
+      <c r="B26" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="H26" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" ht="28.5" spans="2:8">
       <c r="B27" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
+        <v>99</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A19"/>
+  </mergeCells>
+  <pageMargins left="0.118055555555556" right="0.196527777777778" top="0.275" bottom="0.75" header="0.3" footer="0.118055555555556"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="12795" windowHeight="4890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
   <si>
     <t>TYPE</t>
   </si>
@@ -136,13 +136,13 @@
     <t>08</t>
   </si>
   <si>
-    <t>dadd</t>
+    <t>ladd</t>
   </si>
   <si>
     <t>将栈顶两个堆地址对应的数相加并将结果push到栈顶</t>
   </si>
   <si>
-    <t>stack.push( heap[(stack.pop())] + heap[(stack.pop())] );</t>
+    <t>stack.push( heap.newobj( heap[(stack.pop())] + heap[(stack.pop())]).getIdx() );</t>
   </si>
   <si>
     <t>09</t>
@@ -160,7 +160,7 @@
     <t>0A</t>
   </si>
   <si>
-    <t>dsub</t>
+    <t>lsub</t>
   </si>
   <si>
     <t>将栈顶 做堆地址 对应的值 做为被减数，下一个 栈顶做堆地址 对应的值 做减数，相减并结果的堆地址push到栈顶</t>
@@ -181,7 +181,7 @@
     <t>0C</t>
   </si>
   <si>
-    <t>dmul</t>
+    <t>lmul</t>
   </si>
   <si>
     <t>0D</t>
@@ -196,6 +196,9 @@
     <t>0E</t>
   </si>
   <si>
+    <t>ldiv</t>
+  </si>
+  <si>
     <t>0F</t>
   </si>
   <si>
@@ -211,6 +214,15 @@
     <t>10</t>
   </si>
   <si>
+    <t>lrem</t>
+  </si>
+  <si>
+    <t>irem的使用堆的版本</t>
+  </si>
+  <si>
+    <t>obj = heap[stack.pop()]; dvder = heap[stack.pop()]; stack.push(heap.newobj(obj % dvder).getIdx() );</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -226,6 +238,15 @@
     <t>12</t>
   </si>
   <si>
+    <t>lneg</t>
+  </si>
+  <si>
+    <t>ineg的使用堆的版本</t>
+  </si>
+  <si>
+    <t>stack.push( heap.newobj(-(heap[stack.pop()])).getIdx() );</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -241,7 +262,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>shl</t>
+    <t>ishl</t>
   </si>
   <si>
     <t>将栈顶为原数，左移下一个栈顶的长度并push到栈</t>
@@ -253,10 +274,19 @@
     <t>15</t>
   </si>
   <si>
+    <t>lshl</t>
+  </si>
+  <si>
+    <t>ishl的使用堆栈的版本</t>
+  </si>
+  <si>
+    <t>base = heap[stack.pop();] stack.push( heap.newobj(base &gt;&gt; (heap[stack.pop()])).getIdx() );</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>shr</t>
+    <t>ishr</t>
   </si>
   <si>
     <t>将栈顶为原数，右移下一个栈顶的长度并push到栈</t>
@@ -274,7 +304,10 @@
     <t>xnd</t>
   </si>
   <si>
-    <t>将栈顶两数按</t>
+    <t>将栈顶两数按位与</t>
+  </si>
+  <si>
+    <t>stack.push( stack.pop() &amp; stack.pop() );</t>
   </si>
   <si>
     <t>19</t>
@@ -283,16 +316,28 @@
     <t>xor</t>
   </si>
   <si>
+    <t>将栈顶两数按位或</t>
+  </si>
+  <si>
+    <t>stack.push( stack.pop() | stack.pop() );</t>
+  </si>
+  <si>
     <t>1A</t>
   </si>
   <si>
     <t>bnd</t>
   </si>
   <si>
+    <t>将栈顶两数按bool与</t>
+  </si>
+  <si>
     <t>1B</t>
   </si>
   <si>
     <t>bor</t>
+  </si>
+  <si>
+    <t>将栈顶两数按bool或</t>
   </si>
   <si>
     <t>1C</t>
@@ -420,10 +465,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -435,68 +480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,7 +494,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,9 +515,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,22 +525,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,6 +546,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +608,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -599,61 +644,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,121 +818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,11 +890,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,16 +939,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,32 +968,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,152 +992,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,11 +1153,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1128,9 +1182,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1138,56 +1189,61 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1443,20 +1499,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.16666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="3"/>
@@ -1465,37 +1520,37 @@
     <col min="5" max="5" width="4.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="54.6916666666667" style="4" customWidth="1"/>
-    <col min="8" max="8" width="51.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="51.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.4" spans="1:8">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1507,12 +1562,12 @@
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="15.4" spans="1:8">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1524,12 +1579,12 @@
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="15.4" spans="1:8">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1539,12 +1594,12 @@
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15.4" spans="1:8">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1554,12 +1609,12 @@
       <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="15.4" spans="1:8">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1572,12 +1627,12 @@
       <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="15.4" spans="1:8">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1590,12 +1645,12 @@
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:8">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
@@ -1608,97 +1663,97 @@
       <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:8">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" ht="15.4" spans="1:8">
-      <c r="A10" s="9"/>
+    <row r="10" ht="28.5" spans="1:8">
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:8">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" ht="31.15" spans="1:7">
-      <c r="A12" s="9"/>
+    <row r="12" ht="28.5" spans="1:7">
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" ht="15.4" spans="1:8">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" ht="15.4" spans="1:7">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="13" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1706,163 +1761,210 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" ht="15.4" spans="1:8">
-      <c r="A17" s="9"/>
+      <c r="C16" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="10" t="s">
         <v>61</v>
       </c>
+      <c r="C17" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="G17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="9"/>
+      <c r="H17" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:8">
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" ht="15.4" spans="1:8">
-      <c r="A19" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="2:2">
+        <v>71</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="2:8">
       <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" ht="15.4" spans="2:8">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" ht="15.4" spans="2:8">
+        <v>79</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>83</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="2:8">
       <c r="B23" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" ht="15.4" spans="2:8">
+        <v>85</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
+        <v>91</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" ht="15.4" spans="2:7">
+        <v>93</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+        <v>96</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
+        <v>99</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
+        <v>103</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" ht="15.4" spans="2:8">
+        <v>106</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" ht="15.4" spans="2:8">
+      <c r="G30" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" ht="28.5" spans="2:8">
       <c r="B31" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>32</v>
@@ -1871,74 +1973,74 @@
         <v>32</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="2:8">
       <c r="B32" s="3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" ht="15.4" spans="2:8">
+        <v>118</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" ht="15.4" spans="3:8">
+        <v>122</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
       <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" ht="15.4" spans="3:8">
+        <v>125</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
       <c r="C35" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" ht="31.15" spans="3:8">
+        <v>128</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" ht="28.5" spans="3:8">
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>32</v>
@@ -1947,15 +2049,15 @@
         <v>32</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" ht="31.15" spans="3:8">
+        <v>131</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" ht="28.5" spans="3:8">
       <c r="C37" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>32</v>
@@ -1964,60 +2066,60 @@
         <v>32</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" ht="31.15" spans="3:8">
+        <v>134</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" ht="28.5" spans="3:8">
       <c r="C38" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" ht="31.15" spans="3:8">
+        <v>137</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" ht="28.5" spans="3:8">
       <c r="C39" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" ht="15.4" spans="3:8">
+        <v>140</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
       <c r="C40" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" ht="15.4" spans="3:8">
+        <v>143</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
       <c r="C41" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>132</v>
+        <v>146</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12795" windowHeight="4890"/>
+    <workbookView windowWidth="28110" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="ZZZZZZ1">Sheet1!$AEJ$1</definedName>
+    <definedName name="ZZZ1">Sheet1!$AEJ$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="253">
   <si>
     <t>TYPE</t>
   </si>
@@ -190,6 +194,9 @@
     <t>imul的使用堆栈的版本</t>
   </si>
   <si>
+    <t>stack.push( stack.newobj(heap[stack.pop()] * heap[stack.pop()]).getIdx() );</t>
+  </si>
+  <si>
     <t>0D</t>
   </si>
   <si>
@@ -199,6 +206,9 @@
     <t>将栈顶作为被除数，将下一个栈顶作为除数，将结果push进栈</t>
   </si>
   <si>
+    <t>obj = stack.pop(); dvder = stack.pop(); stack.push(obj / dvder);</t>
+  </si>
+  <si>
     <t>0E</t>
   </si>
   <si>
@@ -208,6 +218,9 @@
     <t>idiv的使用堆栈的版本</t>
   </si>
   <si>
+    <t>obj = heap[stack.pop()]; dvder = heap[stack.pop()]; stack.push(heap.newobj(obj / dvder).getIdx() );</t>
+  </si>
+  <si>
     <t>0F</t>
   </si>
   <si>
@@ -259,7 +272,7 @@
     <t>13</t>
   </si>
   <si>
-    <t>exp</t>
+    <t>iexp</t>
   </si>
   <si>
     <t>将栈顶做底数，下一个栈顶作指数，将乘方的结果push进栈</t>
@@ -271,6 +284,18 @@
     <t>14</t>
   </si>
   <si>
+    <t>lexp</t>
+  </si>
+  <si>
+    <t>iexp的使用堆的版本</t>
+  </si>
+  <si>
+    <t>base = heap[stack.pop()]; exp = heap[stack.pop()];    stack.push( heap.newobj(base ^ exp).getIdx() );</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>ishl</t>
   </si>
   <si>
@@ -280,19 +305,19 @@
     <t>base = stack.pop(); stack.push( base &gt;&gt; (stack.pop()) );</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>lshl</t>
   </si>
   <si>
-    <t>ishl的使用堆栈的版本</t>
+    <t>ishl的使用堆的版本</t>
   </si>
   <si>
     <t>base = heap[stack.pop();] stack.push( heap.newobj(base &gt;&gt; (heap[stack.pop()])).getIdx() );</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>ishr</t>
@@ -304,13 +329,22 @@
     <t>base = stack.pop(); stack.push( base &lt;&lt; (stack.pop()) );</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>xnd</t>
+    <t>lshr</t>
+  </si>
+  <si>
+    <t>ishr的使用堆栈的版本</t>
+  </si>
+  <si>
+    <t>base = heap[stack.pop()]; stack.push( heap.newobj( base &lt;&lt; (heap[stack.pop()]) ).getIdx() );</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>ixnd</t>
   </si>
   <si>
     <t>将栈顶两数按位与</t>
@@ -319,10 +353,22 @@
     <t>stack.push( stack.pop() &amp; stack.pop() );</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>xor</t>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>lxnd</t>
+  </si>
+  <si>
+    <t>ixnd的使用堆的版本</t>
+  </si>
+  <si>
+    <t>stack.push( heap.newobj(heap[stack.pop()] &amp; heap[stack.pop() ]).getIdx() );</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>ixor</t>
   </si>
   <si>
     <t>将栈顶两数按位或</t>
@@ -331,7 +377,19 @@
     <t>stack.push( stack.pop() | stack.pop() );</t>
   </si>
   <si>
-    <t>1A</t>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>lxor</t>
+  </si>
+  <si>
+    <t>ixor的使用堆的版本</t>
+  </si>
+  <si>
+    <t>stack.push( heap.newobj(heap[stack.pop()] | heap[stack.pop() ]).getIdx() );</t>
+  </si>
+  <si>
+    <t>1D</t>
   </si>
   <si>
     <t>bnd</t>
@@ -340,7 +398,10 @@
     <t>将栈顶两数按bool与</t>
   </si>
   <si>
-    <t>1B</t>
+    <t>特殊实现：栈一个格4byte，前两byte存两个bool进行运算，第三个格为00时与运算，为01时或运算，第四个废弃</t>
+  </si>
+  <si>
+    <t>1E</t>
   </si>
   <si>
     <t>bor</t>
@@ -349,10 +410,229 @@
     <t>将栈顶两数按bool或</t>
   </si>
   <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>push_const</t>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>icmp</t>
+  </si>
+  <si>
+    <t>将栈顶两个数比较(栈顶为a1，下一个栈顶为a2)，相等入0(0x00)，大于入1(0x01)，小于入-1(0xff)</t>
+  </si>
+  <si>
+    <t>a1 = stack.pop(); a2 = stack.pop(); stack.push( (a1 == a2) ? 0 :  ( (a1&lt;a2) ? -1 : 1 ) );</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>lcmp</t>
+  </si>
+  <si>
+    <t>icmp的使用堆的版本（当然这次的结果不是堆地址了）</t>
+  </si>
+  <si>
+    <t>a1 = heap[stack.pop()]; a2 = heap[stack.pop()]; stack.push( (a1 == a2) ? 0 :  ( (a1&lt;a2) ? -1 : 1 ) );</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>goto</t>
+  </si>
+  <si>
+    <t>跳跃到字节码代码区偏移量为arg1的代码位置</t>
+  </si>
+  <si>
+    <t>jmp( startadr + arg1 );</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>goto_w</t>
+  </si>
+  <si>
+    <t>goto的长跳跃的版本</t>
+  </si>
+  <si>
+    <t>ljmp( startadr + arg1 );</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>goto_o</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>跳跃到当前执行位置偏移量为arg1（可为负数）的位置</t>
+  </si>
+  <si>
+    <t>jmp( current + arg1 );</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ifeq</t>
+  </si>
+  <si>
+    <t>当栈顶两个数相等时继续执行下面语句，否则跳到当前位置+arg1的位置</t>
+  </si>
+  <si>
+    <t>a1 = stack.pop(); a2 = stack.pop(); if(a1==a2){ jmp(current+arg1); }</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ifeq_w</t>
+  </si>
+  <si>
+    <t>ifeq的长跳跃的版本</t>
+  </si>
+  <si>
+    <t>a1 = stack.pop(); a2 = stack.pop(); if(a1==a2){ ljmp(current+arg1); }</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>ifne</t>
+  </si>
+  <si>
+    <t>a1 = stack.pop(); a2 = stack.pop(); if(a1!=a2){ jmp(current+arg1); }</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>ifne_w</t>
+  </si>
+  <si>
+    <t>ifnq的长跳跃的版本</t>
+  </si>
+  <si>
+    <t>a1 = stack.pop(); a2 = stack.pop(); if(a1!=a2){ ljmp(current+arg1); }</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>iflt</t>
+  </si>
+  <si>
+    <t>当栈顶小于下一个栈顶时，继续执行下面语句，否则跳到当前位置+arg1的位置</t>
+  </si>
+  <si>
+    <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&lt;a2){ jmp(current+arg1); }</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>ifle</t>
+  </si>
+  <si>
+    <t>当栈顶小于等于下一个栈顶时，继续执行下面语句，否则跳到当前位置+arg1的位置</t>
+  </si>
+  <si>
+    <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&lt;=a2){ jmp(current+arg1); }</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>ifgt</t>
+  </si>
+  <si>
+    <t>当栈顶大于下一个栈顶时，继续执行下面语句，否则跳到当前位置+arg1的位置</t>
+  </si>
+  <si>
+    <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&gt;a2){ jmp(current+arg1); }</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>ifge</t>
+  </si>
+  <si>
+    <t>当栈顶大于等于下一个栈顶时，继续执行下面语句，否则跳到当前位置+arg1的位置</t>
+  </si>
+  <si>
+    <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&gt;=a2){ jmp(current+arg1); }</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>ifnull</t>
+  </si>
+  <si>
+    <t>当栈顶为0或为null的时候，将1push到栈顶，若不是，push0</t>
+  </si>
+  <si>
+    <t>base = stack.pop(); stack.push( base == 1 | base == null );</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>lifnull</t>
+  </si>
+  <si>
+    <t>ifnull的使用堆的版本</t>
+  </si>
+  <si>
+    <t>base = heap[stack.pop()]; stack.push( base==1 | base==null );</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>函数返回，返回值在ret之前自行push到栈</t>
+  </si>
+  <si>
+    <t>jmp(ret_address);</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>tswitch</t>
+  </si>
+  <si>
+    <t>tableswitch，</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>lswitch</t>
+  </si>
+  <si>
+    <t>lookupswitch</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>pconst</t>
   </si>
   <si>
     <t>将常量池中偏移量为arg1的常量push到栈</t>
@@ -361,10 +641,10 @@
     <t>stack.push( cp_pool[arg1] );</t>
   </si>
   <si>
-    <t>1D</t>
-  </si>
-  <si>
-    <t>store_const</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>sconst</t>
   </si>
   <si>
     <t>将常量池中偏移量为arg1的常量存储到方法中偏移量为arg2的变量</t>
@@ -373,7 +653,7 @@
     <t>localvar[arg2] = cp_pool[arg1];</t>
   </si>
   <si>
-    <t>1E</t>
+    <t>36</t>
   </si>
   <si>
     <t>push</t>
@@ -385,7 +665,7 @@
     <t xml:space="preserve">stack.push( local[var2] ); </t>
   </si>
   <si>
-    <t>1F</t>
+    <t>37</t>
   </si>
   <si>
     <t>pop</t>
@@ -397,6 +677,9 @@
     <t>localvar[arg1] = stack.pop();</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>hpop</t>
   </si>
   <si>
@@ -406,6 +689,9 @@
     <t>localvar[arg1] = heap[stack.pop()];</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>dup</t>
   </si>
   <si>
@@ -415,6 +701,9 @@
     <t>t1 = stack.pop(); t2 = stack.pop(); stack.push(t1); stack.push(t2);</t>
   </si>
   <si>
+    <t>3A</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
@@ -424,6 +713,9 @@
     <t>stack.push( call(cp_pool[arg1], "_init", stack );</t>
   </si>
   <si>
+    <t>3B</t>
+  </si>
+  <si>
     <t>call</t>
   </si>
   <si>
@@ -433,6 +725,9 @@
     <t>stack.push( call(cp_pool[arg1], cp_pool[arg2], stack );</t>
   </si>
   <si>
+    <t>3C</t>
+  </si>
+  <si>
     <t>getField</t>
   </si>
   <si>
@@ -442,6 +737,9 @@
     <t>obj = stack.pop(); stack.push( obj.fields[arg1] );</t>
   </si>
   <si>
+    <t>3D</t>
+  </si>
+  <si>
     <t>putField</t>
   </si>
   <si>
@@ -451,6 +749,9 @@
     <t>obj = stack.pop(); obj.fields[arg1] = stack.pop();</t>
   </si>
   <si>
+    <t>3E</t>
+  </si>
+  <si>
     <t>sp_enter</t>
   </si>
   <si>
@@ -460,6 +761,9 @@
     <t xml:space="preserve">-  </t>
   </si>
   <si>
+    <t>3F</t>
+  </si>
+  <si>
     <t>sp_quit</t>
   </si>
   <si>
@@ -467,6 +771,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
 </sst>
 </file>
@@ -474,12 +784,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,10 +798,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,9 +812,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,17 +833,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,14 +872,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -581,6 +889,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -590,7 +906,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,28 +948,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -647,13 +964,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,174 +1138,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -893,12 +1210,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -917,26 +1249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -948,6 +1260,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,157 +1311,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,6 +1503,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,65 +1527,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1491,29 +1873,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.16666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="3"/>
-    <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="54.6916666666667" style="4" customWidth="1"/>
-    <col min="8" max="8" width="51.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="3.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="50.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1526,24 +1906,24 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.4" spans="1:8">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1559,8 +1939,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="15.4" spans="1:8">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1576,8 +1956,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="15.4" spans="1:8">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1591,8 +1971,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15.4" spans="1:8">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1606,8 +1986,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="15.4" spans="1:8">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1624,8 +2004,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="15.4" spans="1:8">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1643,7 +2023,7 @@
       </c>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:8">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
@@ -1661,11 +2041,11 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:8">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1675,12 +2055,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" ht="24.95" spans="1:8">
-      <c r="A10" s="9"/>
+    <row r="10" ht="28.5" spans="1:8">
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1691,11 +2071,11 @@
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:8">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1705,12 +2085,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" ht="31.15" spans="1:8">
-      <c r="A12" s="9"/>
+    <row r="12" ht="28.5" spans="1:8">
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1720,12 +2100,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="15.4" spans="1:8">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1735,400 +2115,819 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" ht="15.4" spans="1:7">
-      <c r="A14" s="9"/>
+    <row r="14" ht="28.5" spans="1:8">
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="13" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" ht="15.4" spans="1:7">
-      <c r="A15" s="9"/>
+      <c r="H14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="C15" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="G15" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" ht="15.4" spans="1:7">
-      <c r="A16" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:8">
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" ht="15.4" spans="1:8">
-      <c r="A17" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" ht="24.95" spans="1:8">
-      <c r="A18" s="9"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:8">
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" ht="15.4" spans="1:8">
-      <c r="A19" s="11"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="2:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:8">
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" ht="15.4" spans="2:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" ht="15.4" spans="2:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:8">
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" ht="24.95" spans="2:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" ht="15.4" spans="2:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="1:8">
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" ht="15.4" spans="2:8">
+        <v>99</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" ht="28.5" spans="1:8">
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" ht="15.4" spans="2:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" ht="15.4" spans="2:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" ht="28.5" spans="1:8">
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" ht="15.4" spans="2:7">
+        <v>113</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" ht="15.4" spans="2:8">
+        <v>117</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" ht="28.5" spans="1:8">
+      <c r="A30" s="10"/>
       <c r="B30" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" ht="15.4" spans="2:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1" spans="2:8">
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="2:8">
       <c r="B32" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" ht="28.5" spans="2:8">
+      <c r="B33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5" spans="2:8">
+      <c r="B34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" ht="15.4" spans="2:8">
-      <c r="B33" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" ht="15.4" spans="3:8">
-      <c r="C34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" ht="24.95" spans="3:8">
-      <c r="C35" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="G35" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" ht="31.15" spans="3:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="C36" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" ht="31.15" spans="3:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="C37" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" ht="31.15" spans="3:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" ht="28.5" spans="2:8">
+      <c r="B38" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C38" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" ht="31.15" spans="3:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" ht="28.5" spans="2:8">
+      <c r="B39" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="C39" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" ht="28.5" spans="2:8">
+      <c r="B40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" ht="15.4" spans="3:8">
-      <c r="C40" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="G40" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" ht="15.4" spans="3:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="2:8">
+      <c r="B41" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="C41" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" ht="28.5" spans="2:8">
+      <c r="B42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" ht="28.5" spans="2:8">
+      <c r="B43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" ht="28.5" spans="2:8">
+      <c r="B44" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" ht="28.5" spans="2:8">
+      <c r="B45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" ht="28.5" spans="2:8">
+      <c r="B55" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" ht="28.5" spans="2:8">
+      <c r="B59" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" ht="28.5" spans="2:8">
+      <c r="B60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" ht="28.5" spans="2:9">
+      <c r="B61" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" ht="28.5" spans="1:9">
+      <c r="A62" s="18"/>
+      <c r="B62" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="I62" s="24"/>
+    </row>
+    <row r="63" ht="33" customHeight="1" spans="1:9">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="I63" s="25"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" s="21"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="I64" s="25"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="I65" s="24"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A19"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A30"/>
+    <mergeCell ref="H31:H32"/>
   </mergeCells>
-  <pageMargins left="0.118055555555556" right="0.196527777777778" top="0.275" bottom="0.75" header="0.3" footer="0.118055555555556"/>
+  <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.156944444444444" bottom="0.118055555555556" header="0.3" footer="0.118055555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13140"/>
+    <workbookView windowWidth="13035" windowHeight="5475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="256">
   <si>
     <t>TYPE</t>
   </si>
@@ -389,6 +389,9 @@
     <t>stack.push( heap.newobj(heap[stack.pop()] | heap[stack.pop() ]).getIdx() );</t>
   </si>
   <si>
+    <t>comparisons</t>
+  </si>
+  <si>
     <t>1D</t>
   </si>
   <si>
@@ -680,7 +683,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>hpop</t>
+    <t>lpop</t>
   </si>
   <si>
     <t>将栈顶作为堆地址pop到方法中偏移量为arg1的变量</t>
@@ -707,25 +710,34 @@
     <t>new</t>
   </si>
   <si>
-    <t>以常量池中偏移量为arg1的常量为类名初始化，并将结果（对象）push到栈顶</t>
-  </si>
-  <si>
-    <t>stack.push( call(cp_pool[arg1], "_init", stack );</t>
+    <t>以常量池中偏移量为arg1的常量为类名初始化，并将结果（对象）push到栈顶（参数在栈中）</t>
+  </si>
+  <si>
+    <t>ret_address = current;  stack.push( call(cp_pool[arg1], "_init", stack );</t>
   </si>
   <si>
     <t>3B</t>
   </si>
   <si>
+    <t>newarr</t>
+  </si>
+  <si>
+    <t>以常量池中偏移量为arg1的常量为类名，arg2为大小初始数组，并将结果（对象）push到栈顶（参数在栈中）</t>
+  </si>
+  <si>
+    <t>ret_address = current;  stack.push( call(cp_pool + "$array", "_init", stack );</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
     <t>call</t>
   </si>
   <si>
-    <t>以arg1为类名常量池中常量的偏移量，arg2为方法符号调用方法的常量池偏移量调用方法，以stack顶部的并将结果push到栈顶</t>
-  </si>
-  <si>
-    <t>stack.push( call(cp_pool[arg1], cp_pool[arg2], stack );</t>
-  </si>
-  <si>
-    <t>3C</t>
+    <t>ret_address = current;  stack.push( call(cp_pool[arg1], cp_pool[arg2], stack );</t>
+  </si>
+  <si>
+    <t>3D</t>
   </si>
   <si>
     <t>getField</t>
@@ -737,7 +749,7 @@
     <t>obj = stack.pop(); stack.push( obj.fields[arg1] );</t>
   </si>
   <si>
-    <t>3D</t>
+    <t>3E</t>
   </si>
   <si>
     <t>putField</t>
@@ -749,7 +761,7 @@
     <t>obj = stack.pop(); obj.fields[arg1] = stack.pop();</t>
   </si>
   <si>
-    <t>3E</t>
+    <t>3F</t>
   </si>
   <si>
     <t>sp_enter</t>
@@ -761,7 +773,7 @@
     <t xml:space="preserve">-  </t>
   </si>
   <si>
-    <t>3F</t>
+    <t>40</t>
   </si>
   <si>
     <t>sp_quit</t>
@@ -771,9 +783,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>40</t>
   </si>
   <si>
     <t>41</t>
@@ -1481,7 +1490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1527,26 +1536,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1881,8 +1896,8 @@
   <sheetPr/>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1890,7 +1905,7 @@
     <col min="1" max="1" width="8.16666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="3"/>
     <col min="3" max="3" width="6.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="3.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.375" style="3" customWidth="1"/>
     <col min="5" max="6" width="3.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="53.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="50.875" style="4" customWidth="1"/>
@@ -2160,7 +2175,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" ht="28.5" spans="1:8">
       <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
         <v>67</v>
@@ -2370,349 +2385,371 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" ht="16" customHeight="1" spans="2:8">
+    <row r="31" ht="16" customHeight="1" spans="1:8">
+      <c r="A31" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="B31" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" s="15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="2:8">
+      <c r="H31" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:8">
+      <c r="A32" s="17"/>
       <c r="B32" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" ht="28.5" spans="2:8">
+        <v>130</v>
+      </c>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" ht="28.5" spans="1:8">
+      <c r="A33" s="17"/>
       <c r="B33" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" ht="28.5" spans="2:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5" spans="1:8">
+      <c r="A34" s="17"/>
       <c r="B34" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="17"/>
       <c r="B35" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="17"/>
       <c r="B36" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="17"/>
       <c r="B37" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" ht="28.5" spans="2:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" ht="28.5" spans="1:8">
+      <c r="A38" s="17"/>
       <c r="B38" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" ht="28.5" spans="2:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" ht="28.5" spans="1:8">
+      <c r="A39" s="17"/>
       <c r="B39" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" ht="28.5" spans="2:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" ht="28.5" spans="1:8">
+      <c r="A40" s="17"/>
       <c r="B40" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" ht="28.5" spans="2:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="1:8">
+      <c r="A41" s="17"/>
       <c r="B41" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" ht="28.5" spans="2:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" ht="28.5" spans="1:8">
+      <c r="A42" s="17"/>
       <c r="B42" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" ht="28.5" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" ht="28.5" spans="1:8">
+      <c r="A43" s="17"/>
       <c r="B43" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" ht="28.5" spans="2:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" ht="28.5" spans="1:8">
+      <c r="A44" s="17"/>
       <c r="B44" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" ht="28.5" spans="2:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" ht="28.5" spans="1:8">
+      <c r="A45" s="17"/>
       <c r="B45" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="17"/>
       <c r="B46" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="17"/>
       <c r="B47" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="17"/>
       <c r="B48" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="17"/>
       <c r="B49" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="17"/>
       <c r="B50" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G54" s="16" t="s">
-        <v>205</v>
+      <c r="G54" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" ht="28.5" spans="2:8">
       <c r="B55" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>32</v>
@@ -2721,103 +2758,101 @@
         <v>32</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" ht="28.5" spans="2:8">
       <c r="B59" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="2:8">
       <c r="B60" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E60" s="2"/>
       <c r="G60" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="2:9">
       <c r="B61" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>32</v>
@@ -2825,106 +2860,118 @@
       <c r="E61" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H61" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="I61" s="24"/>
+      <c r="H61" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I61" s="26"/>
     </row>
     <row r="62" ht="28.5" spans="1:9">
-      <c r="A62" s="18"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G62" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H62" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H62" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="I62" s="24"/>
+      <c r="I62" s="26"/>
     </row>
     <row r="63" ht="33" customHeight="1" spans="1:9">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="4" t="s">
         <v>241</v>
       </c>
       <c r="H63" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="I63" s="25"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21" t="s">
+      <c r="I63" s="27"/>
+    </row>
+    <row r="64" ht="28.5" spans="1:9">
+      <c r="A64" s="21"/>
+      <c r="B64" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="22" t="s">
+      <c r="D64" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H64" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="I64" s="25"/>
+      <c r="I64" s="27"/>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="4" t="s">
+      <c r="D65" s="4"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="H65" s="17" t="s">
+      <c r="H65" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="I65" s="24"/>
-    </row>
-    <row r="66" spans="2:2">
+      <c r="I65" s="26"/>
+    </row>
+    <row r="66" spans="2:8">
       <c r="B66" s="3" t="s">
         <v>251</v>
       </c>
+      <c r="C66" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:A30"/>
+    <mergeCell ref="A31:A50"/>
     <mergeCell ref="H31:H32"/>
   </mergeCells>
   <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.156944444444444" bottom="0.118055555555556" header="0.3" footer="0.118055555555556"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13035" windowHeight="5475"/>
+    <workbookView windowWidth="28110" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="259">
   <si>
     <t>TYPE</t>
   </si>
@@ -128,6 +128,18 @@
     <t>07</t>
   </si>
   <si>
+    <t>lconst</t>
+  </si>
+  <si>
+    <t>将常量池中以arg1为偏移量的number常量作为对象添加到堆并将堆偏移量push到栈</t>
+  </si>
+  <si>
+    <t>stack.push2( cp_pool[arg1] );</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
     <t>iadd</t>
   </si>
   <si>
@@ -137,19 +149,19 @@
     <t>stack.push( (stack.pop()) + (stack.pop()) );</t>
   </si>
   <si>
-    <t>08</t>
+    <t>09</t>
   </si>
   <si>
     <t>ladd</t>
   </si>
   <si>
-    <t>将栈顶两个堆地址对应的数相加并将结果push到栈顶</t>
-  </si>
-  <si>
-    <t>stack.push( heap.newobj( heap[(stack.pop())] + heap[(stack.pop())]).getIdx() );</t>
-  </si>
-  <si>
-    <t>09</t>
+    <t>将栈顶两个long相加（每个八字节）并将结果push到栈顶</t>
+  </si>
+  <si>
+    <t>stack.push2( (stack.pop2()) + (stack.pop2() );</t>
+  </si>
+  <si>
+    <t>0A</t>
   </si>
   <si>
     <t>isub</t>
@@ -161,19 +173,19 @@
     <t>top = stack.pop(); top_m1 = stack.pop(); stack.push(a-b);</t>
   </si>
   <si>
-    <t>0A</t>
+    <t>0B</t>
   </si>
   <si>
     <t>lsub</t>
   </si>
   <si>
-    <t>将栈顶 做堆地址 对应的值 做为被减数，下一个 栈顶做堆地址 对应的值 做减数，相减并结果的堆地址push到栈顶</t>
-  </si>
-  <si>
-    <t>top = heap[stack.pop()]; top_m1 = heap[stack.pop()]; stack.push( heap.newobj(a-b).getIdx() );</t>
-  </si>
-  <si>
-    <t>0B</t>
+    <t>isub的双字版本</t>
+  </si>
+  <si>
+    <t>top = stack.pop2(); top_m1 = stack.pop2(); stack.push2( top - top_m1 );</t>
+  </si>
+  <si>
+    <t>0C</t>
   </si>
   <si>
     <t>imul</t>
@@ -185,19 +197,19 @@
     <t>stack.push( (stack.pop()) * (stack.pop()) );</t>
   </si>
   <si>
-    <t>0C</t>
+    <t>0D</t>
   </si>
   <si>
     <t>lmul</t>
   </si>
   <si>
-    <t>imul的使用堆栈的版本</t>
-  </si>
-  <si>
-    <t>stack.push( stack.newobj(heap[stack.pop()] * heap[stack.pop()]).getIdx() );</t>
-  </si>
-  <si>
-    <t>0D</t>
+    <t>imul的双字版本</t>
+  </si>
+  <si>
+    <t>stack.push2( stack.pop2() * stack.pop2() );</t>
+  </si>
+  <si>
+    <t>0E</t>
   </si>
   <si>
     <t>idiv</t>
@@ -209,19 +221,19 @@
     <t>obj = stack.pop(); dvder = stack.pop(); stack.push(obj / dvder);</t>
   </si>
   <si>
-    <t>0E</t>
+    <t>0F</t>
   </si>
   <si>
     <t>ldiv</t>
   </si>
   <si>
-    <t>idiv的使用堆栈的版本</t>
-  </si>
-  <si>
-    <t>obj = heap[stack.pop()]; dvder = heap[stack.pop()]; stack.push(heap.newobj(obj / dvder).getIdx() );</t>
-  </si>
-  <si>
-    <t>0F</t>
+    <t>idiv的双字版本</t>
+  </si>
+  <si>
+    <t>obj = stack.pop2(); dvder = stack.pop2(); stack.push2(obj / dvder);</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>irem</t>
@@ -233,19 +245,19 @@
     <t>obj = stack.pop(); dvder = stack.pop(); stack.push(obj % dvder);</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>lrem</t>
   </si>
   <si>
-    <t>irem的使用堆的版本</t>
-  </si>
-  <si>
-    <t>obj = heap[stack.pop()]; dvder = heap[stack.pop()]; stack.push(heap.newobj(obj % dvder).getIdx() );</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>irem的双字版本</t>
+  </si>
+  <si>
+    <t>obj = stack.pop2(); dvder = stack.pop2(); stack.push2(obj % dvder);</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>ineg</t>
@@ -257,19 +269,19 @@
     <t>stack.push( -(stack.pop()) );</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>lneg</t>
   </si>
   <si>
-    <t>ineg的使用堆的版本</t>
-  </si>
-  <si>
-    <t>stack.push( heap.newobj(-(heap[stack.pop()])).getIdx() );</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>ineg的双字版本</t>
+  </si>
+  <si>
+    <t>stack.push2( -stack.pop2() );</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>iexp</t>
@@ -281,19 +293,19 @@
     <t>base = stack.pop(); exp = stack.pop(); stack.push(base ^ exp);</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>lexp</t>
   </si>
   <si>
-    <t>iexp的使用堆的版本</t>
+    <t>iexp的双字版本</t>
   </si>
   <si>
     <t>base = heap[stack.pop()]; exp = heap[stack.pop()];    stack.push( heap.newobj(base ^ exp).getIdx() );</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>ishl</t>
@@ -305,19 +317,19 @@
     <t>base = stack.pop(); stack.push( base &gt;&gt; (stack.pop()) );</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>lshl</t>
   </si>
   <si>
-    <t>ishl的使用堆的版本</t>
+    <t>ishl的双字版本</t>
   </si>
   <si>
     <t>base = heap[stack.pop();] stack.push( heap.newobj(base &gt;&gt; (heap[stack.pop()])).getIdx() );</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>ishr</t>
@@ -329,19 +341,19 @@
     <t>base = stack.pop(); stack.push( base &lt;&lt; (stack.pop()) );</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>lshr</t>
   </si>
   <si>
-    <t>ishr的使用堆栈的版本</t>
+    <t>ishr的双字版本</t>
   </si>
   <si>
     <t>base = heap[stack.pop()]; stack.push( heap.newobj( base &lt;&lt; (heap[stack.pop()]) ).getIdx() );</t>
   </si>
   <si>
-    <t>19</t>
+    <t>1A</t>
   </si>
   <si>
     <t>ixnd</t>
@@ -353,19 +365,19 @@
     <t>stack.push( stack.pop() &amp; stack.pop() );</t>
   </si>
   <si>
-    <t>1A</t>
+    <t>1B</t>
   </si>
   <si>
     <t>lxnd</t>
   </si>
   <si>
-    <t>ixnd的使用堆的版本</t>
-  </si>
-  <si>
-    <t>stack.push( heap.newobj(heap[stack.pop()] &amp; heap[stack.pop() ]).getIdx() );</t>
-  </si>
-  <si>
-    <t>1B</t>
+    <t>ixnd的双字版本</t>
+  </si>
+  <si>
+    <t>stack.push( stack.pop2() &amp; stack.pop2() );</t>
+  </si>
+  <si>
+    <t>1C</t>
   </si>
   <si>
     <t>ixor</t>
@@ -377,22 +389,22 @@
     <t>stack.push( stack.pop() | stack.pop() );</t>
   </si>
   <si>
-    <t>1C</t>
+    <t>comparisons</t>
+  </si>
+  <si>
+    <t>1D</t>
   </si>
   <si>
     <t>lxor</t>
   </si>
   <si>
-    <t>ixor的使用堆的版本</t>
-  </si>
-  <si>
-    <t>stack.push( heap.newobj(heap[stack.pop()] | heap[stack.pop() ]).getIdx() );</t>
-  </si>
-  <si>
-    <t>comparisons</t>
-  </si>
-  <si>
-    <t>1D</t>
+    <t>ixor的双字版本</t>
+  </si>
+  <si>
+    <t>stack.push( stack.pop2() | stack.pop2() );</t>
+  </si>
+  <si>
+    <t>1E</t>
   </si>
   <si>
     <t>bnd</t>
@@ -404,7 +416,7 @@
     <t>特殊实现：栈一个格4byte，前两byte存两个bool进行运算，第三个格为00时与运算，为01时或运算，第四个废弃</t>
   </si>
   <si>
-    <t>1E</t>
+    <t>1F</t>
   </si>
   <si>
     <t>bor</t>
@@ -413,7 +425,7 @@
     <t>将栈顶两数按bool或</t>
   </si>
   <si>
-    <t>1F</t>
+    <t>20</t>
   </si>
   <si>
     <t>icmp</t>
@@ -425,19 +437,19 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); stack.push( (a1 == a2) ? 0 :  ( (a1&lt;a2) ? -1 : 1 ) );</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>lcmp</t>
   </si>
   <si>
-    <t>icmp的使用堆的版本（当然这次的结果不是堆地址了）</t>
-  </si>
-  <si>
-    <t>a1 = heap[stack.pop()]; a2 = heap[stack.pop()]; stack.push( (a1 == a2) ? 0 :  ( (a1&lt;a2) ? -1 : 1 ) );</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>icmp的双字版本</t>
+  </si>
+  <si>
+    <t>a1 = stack.pop2(); a2 = stack.pop2(); stack.push( (a1 == a2) ? 0 :  ( (a1&lt;a2) ? -1 : 1 ) );</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>goto</t>
@@ -449,7 +461,7 @@
     <t>jmp( startadr + arg1 );</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>goto_w</t>
@@ -461,7 +473,7 @@
     <t>ljmp( startadr + arg1 );</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>goto_o</t>
@@ -476,7 +488,7 @@
     <t>jmp( current + arg1 );</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>ifeq</t>
@@ -488,7 +500,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1==a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>ifeq_w</t>
@@ -500,7 +512,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1==a2){ ljmp(current+arg1); }</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>ifne</t>
@@ -509,7 +521,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1!=a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>ifne_w</t>
@@ -521,7 +533,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1!=a2){ ljmp(current+arg1); }</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>iflt</t>
@@ -533,7 +545,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&lt;a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>29</t>
+    <t>2A</t>
   </si>
   <si>
     <t>ifle</t>
@@ -545,7 +557,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&lt;=a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>2A</t>
+    <t>2B</t>
   </si>
   <si>
     <t>ifgt</t>
@@ -557,7 +569,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&gt;a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>2B</t>
+    <t>2C</t>
   </si>
   <si>
     <t>ifge</t>
@@ -569,7 +581,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&gt;=a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>2C</t>
+    <t>2D</t>
   </si>
   <si>
     <t>ifnull</t>
@@ -581,7 +593,7 @@
     <t>base = stack.pop(); stack.push( base == 1 | base == null );</t>
   </si>
   <si>
-    <t>2D</t>
+    <t>2E</t>
   </si>
   <si>
     <t>lifnull</t>
@@ -593,7 +605,7 @@
     <t>base = heap[stack.pop()]; stack.push( base==1 | base==null );</t>
   </si>
   <si>
-    <t>2E</t>
+    <t>2F</t>
   </si>
   <si>
     <t>ret</t>
@@ -605,7 +617,7 @@
     <t>jmp(ret_address);</t>
   </si>
   <si>
-    <t>2F</t>
+    <t>30</t>
   </si>
   <si>
     <t>tswitch</t>
@@ -614,7 +626,7 @@
     <t>tableswitch，</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>lswitch</t>
@@ -623,9 +635,6 @@
     <t>lookupswitch</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -635,6 +644,9 @@
     <t>34</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>pconst</t>
   </si>
   <si>
@@ -644,7 +656,7 @@
     <t>stack.push( cp_pool[arg1] );</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>sconst</t>
@@ -656,7 +668,7 @@
     <t>localvar[arg2] = cp_pool[arg1];</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>push</t>
@@ -668,33 +680,33 @@
     <t xml:space="preserve">stack.push( local[var2] ); </t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>将栈顶pop到方法中偏移量为arg1的变量</t>
+    <t>将栈顶pop到偏移量为arg1的变量</t>
   </si>
   <si>
     <t>localvar[arg1] = stack.pop();</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>lpop</t>
-  </si>
-  <si>
-    <t>将栈顶作为堆地址pop到方法中偏移量为arg1的变量</t>
-  </si>
-  <si>
-    <t>localvar[arg1] = heap[stack.pop()];</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
+    <t>pop2</t>
+  </si>
+  <si>
+    <t>将栈顶一个双字值pop到偏移量为arg1的变量</t>
+  </si>
+  <si>
+    <t>localvar[arg1] = stack.pop2();</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
     <t>dup</t>
   </si>
   <si>
@@ -704,7 +716,7 @@
     <t>t1 = stack.pop(); t2 = stack.pop(); stack.push(t1); stack.push(t2);</t>
   </si>
   <si>
-    <t>3A</t>
+    <t>3B</t>
   </si>
   <si>
     <t>new</t>
@@ -716,7 +728,7 @@
     <t>ret_address = current;  stack.push( call(cp_pool[arg1], "_init", stack );</t>
   </si>
   <si>
-    <t>3B</t>
+    <t>3C</t>
   </si>
   <si>
     <t>newarr</t>
@@ -728,7 +740,7 @@
     <t>ret_address = current;  stack.push( call(cp_pool + "$array", "_init", stack );</t>
   </si>
   <si>
-    <t>3C</t>
+    <t>3D</t>
   </si>
   <si>
     <t>call</t>
@@ -737,7 +749,7 @@
     <t>ret_address = current;  stack.push( call(cp_pool[arg1], cp_pool[arg2], stack );</t>
   </si>
   <si>
-    <t>3D</t>
+    <t>3E</t>
   </si>
   <si>
     <t>getField</t>
@@ -749,7 +761,7 @@
     <t>obj = stack.pop(); stack.push( obj.fields[arg1] );</t>
   </si>
   <si>
-    <t>3E</t>
+    <t>3F</t>
   </si>
   <si>
     <t>putField</t>
@@ -761,7 +773,7 @@
     <t>obj = stack.pop(); obj.fields[arg1] = stack.pop();</t>
   </si>
   <si>
-    <t>3F</t>
+    <t>40</t>
   </si>
   <si>
     <t>sp_enter</t>
@@ -773,7 +785,7 @@
     <t xml:space="preserve">-  </t>
   </si>
   <si>
-    <t>40</t>
+    <t>41</t>
   </si>
   <si>
     <t>sp_quit</t>
@@ -783,9 +795,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>41</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1542,38 +1551,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1896,8 +1902,8 @@
   <sheetPr/>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2055,13 +2061,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:8">
+    <row r="9" ht="29" customHeight="1" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>37</v>
@@ -2070,7 +2079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>39</v>
@@ -2115,7 +2124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" ht="28.5" spans="1:8">
       <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>51</v>
@@ -2130,7 +2139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>55</v>
@@ -2160,7 +2169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" ht="28.5" spans="1:8">
+    <row r="16" spans="1:8">
       <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>63</v>
@@ -2205,7 +2214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" ht="28.5" spans="1:8">
       <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>75</v>
@@ -2250,12 +2259,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" ht="28.5" spans="1:8">
+    <row r="22" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="13" t="s">
         <v>88</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -2265,12 +2274,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" ht="28.5" spans="1:8">
       <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -2280,7 +2289,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" ht="28.5" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
         <v>95</v>
@@ -2295,7 +2304,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" ht="28.5" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>99</v>
@@ -2310,12 +2319,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" ht="28.5" spans="1:8">
+    <row r="26" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="13" t="s">
         <v>104</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -2325,7 +2334,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" ht="28.5" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
         <v>107</v>
@@ -2340,7 +2349,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" ht="28.5" spans="1:8">
+    <row r="28" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>111</v>
@@ -2370,7 +2379,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" ht="28.5" spans="1:8">
+    <row r="30" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="3" t="s">
         <v>119</v>
@@ -2398,12 +2407,12 @@
       <c r="G31" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:8">
-      <c r="A32" s="17"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="3" t="s">
         <v>128</v>
       </c>
@@ -2413,25 +2422,25 @@
       <c r="G32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" ht="28.5" spans="1:8">
-      <c r="A33" s="17"/>
+      <c r="H32" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" ht="28.5" spans="1:8">
-      <c r="A34" s="17"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="3" t="s">
         <v>135</v>
       </c>
@@ -2445,17 +2454,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="17"/>
+    <row r="35" ht="28.5" spans="1:8">
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G35" s="4" t="s">
         <v>141</v>
       </c>
@@ -2464,7 +2470,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="3" t="s">
         <v>143</v>
       </c>
@@ -2472,7 +2478,7 @@
         <v>144</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>145</v>
@@ -2482,7 +2488,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="17"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="3" t="s">
         <v>147</v>
       </c>
@@ -2490,25 +2496,25 @@
         <v>148</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="15"/>
+      <c r="B38" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="38" ht="28.5" spans="1:8">
-      <c r="A38" s="17"/>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>154</v>
@@ -2518,7 +2524,7 @@
       </c>
     </row>
     <row r="39" ht="28.5" spans="1:8">
-      <c r="A39" s="17"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="3" t="s">
         <v>156</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>157</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>158</v>
@@ -2536,7 +2542,7 @@
       </c>
     </row>
     <row r="40" ht="28.5" spans="1:8">
-      <c r="A40" s="17"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="3" t="s">
         <v>160</v>
       </c>
@@ -2544,35 +2550,35 @@
         <v>161</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="1:8">
+      <c r="A41" s="15"/>
+      <c r="B41" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" ht="28.5" spans="1:8">
-      <c r="A41" s="17"/>
-      <c r="B41" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G41" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:8">
-      <c r="A42" s="17"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="3" t="s">
         <v>167</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>168</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>169</v>
@@ -2590,7 +2596,7 @@
       </c>
     </row>
     <row r="43" ht="28.5" spans="1:8">
-      <c r="A43" s="17"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="3" t="s">
         <v>171</v>
       </c>
@@ -2608,7 +2614,7 @@
       </c>
     </row>
     <row r="44" ht="28.5" spans="1:8">
-      <c r="A44" s="17"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="3" t="s">
         <v>175</v>
       </c>
@@ -2626,7 +2632,7 @@
       </c>
     </row>
     <row r="45" ht="28.5" spans="1:8">
-      <c r="A45" s="17"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="3" t="s">
         <v>179</v>
       </c>
@@ -2643,14 +2649,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="17"/>
+    <row r="46" ht="28.5" spans="1:8">
+      <c r="A46" s="15"/>
       <c r="B46" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="D46" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G46" s="4" t="s">
         <v>185</v>
       </c>
@@ -2659,7 +2668,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="17"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="3" t="s">
         <v>187</v>
       </c>
@@ -2674,7 +2683,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="17"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="3" t="s">
         <v>191</v>
       </c>
@@ -2688,8 +2697,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="17"/>
+    <row r="49" spans="1:8">
+      <c r="A49" s="15"/>
       <c r="B49" s="3" t="s">
         <v>195</v>
       </c>
@@ -2699,52 +2708,49 @@
       <c r="G49" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="H49" s="4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="17"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H54" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="55" ht="28.5" spans="2:8">
+    <row r="55" spans="2:8">
       <c r="B55" s="3" t="s">
         <v>208</v>
       </c>
@@ -2754,17 +2760,14 @@
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="17" t="s">
         <v>210</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" ht="28.5" spans="2:8">
       <c r="B56" s="3" t="s">
         <v>212</v>
       </c>
@@ -2772,6 +2775,9 @@
         <v>213</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -2815,12 +2821,15 @@
         <v>223</v>
       </c>
     </row>
-    <row r="59" ht="28.5" spans="2:8">
+    <row r="59" spans="2:8">
       <c r="B59" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>225</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>226</v>
@@ -2836,10 +2845,6 @@
       <c r="C60" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="2"/>
       <c r="G60" s="4" t="s">
         <v>230</v>
       </c>
@@ -2857,20 +2862,16 @@
       <c r="D61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="2"/>
       <c r="G61" s="4" t="s">
         <v>234</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="I61" s="26"/>
+      <c r="I61" s="23"/>
     </row>
     <row r="62" ht="28.5" spans="1:9">
-      <c r="A62" s="19"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="3" t="s">
         <v>236</v>
       </c>
@@ -2884,95 +2885,110 @@
         <v>32</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H62" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="I62" s="26"/>
+      <c r="H62" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I62" s="23"/>
     </row>
     <row r="63" ht="33" customHeight="1" spans="1:9">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22" t="s">
-        <v>239</v>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E63" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G63" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H63" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="H63" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I63" s="27"/>
+      <c r="I63" s="24"/>
     </row>
     <row r="64" ht="28.5" spans="1:9">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22" t="s">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="24" t="s">
+      <c r="G64" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="I64" s="27"/>
-    </row>
-    <row r="65" spans="2:9">
+      <c r="I64" s="24"/>
+    </row>
+    <row r="65" ht="28.5" spans="2:9">
       <c r="B65" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="24" t="s">
+      <c r="D65" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="I65" s="26"/>
+      <c r="I65" s="23"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="D66" s="4"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="H66" s="20" t="s">
+      <c r="H66" s="26" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:8">
       <c r="B67" s="3" t="s">
         <v>255</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:A30"/>
     <mergeCell ref="A31:A50"/>
-    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H32:H33"/>
   </mergeCells>
   <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.156944444444444" bottom="0.118055555555556" header="0.3" footer="0.118055555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="258">
   <si>
     <t>TYPE</t>
   </si>
@@ -179,7 +179,7 @@
     <t>lsub</t>
   </si>
   <si>
-    <t>isub的双字版本</t>
+    <t>isub的long版本</t>
   </si>
   <si>
     <t>top = stack.pop2(); top_m1 = stack.pop2(); stack.push2( top - top_m1 );</t>
@@ -203,7 +203,7 @@
     <t>lmul</t>
   </si>
   <si>
-    <t>imul的双字版本</t>
+    <t>imul的long版本</t>
   </si>
   <si>
     <t>stack.push2( stack.pop2() * stack.pop2() );</t>
@@ -227,7 +227,7 @@
     <t>ldiv</t>
   </si>
   <si>
-    <t>idiv的双字版本</t>
+    <t>idiv的long版本</t>
   </si>
   <si>
     <t>obj = stack.pop2(); dvder = stack.pop2(); stack.push2(obj / dvder);</t>
@@ -251,7 +251,7 @@
     <t>lrem</t>
   </si>
   <si>
-    <t>irem的双字版本</t>
+    <t>irem的long版本</t>
   </si>
   <si>
     <t>obj = stack.pop2(); dvder = stack.pop2(); stack.push2(obj % dvder);</t>
@@ -302,7 +302,7 @@
     <t>iexp的双字版本</t>
   </si>
   <si>
-    <t>base = heap[stack.pop()]; exp = heap[stack.pop()];    stack.push( heap.newobj(base ^ exp).getIdx() );</t>
+    <t>base=stack.pop2();exp=stack.pop2();stack.push2(base ^ exp);</t>
   </si>
   <si>
     <t>16</t>
@@ -326,7 +326,7 @@
     <t>ishl的双字版本</t>
   </si>
   <si>
-    <t>base = heap[stack.pop();] stack.push( heap.newobj(base &gt;&gt; (heap[stack.pop()])).getIdx() );</t>
+    <t>base = stack.pop2(); stack.push2( base &gt;&gt; (stack.pop2()) );</t>
   </si>
   <si>
     <t>18</t>
@@ -350,7 +350,7 @@
     <t>ishr的双字版本</t>
   </si>
   <si>
-    <t>base = heap[stack.pop()]; stack.push( heap.newobj( base &lt;&lt; (heap[stack.pop()]) ).getIdx() );</t>
+    <t>base = stack.pop2(); stack.push2( base &lt;&lt; (stack.pop2()) );</t>
   </si>
   <si>
     <t>1A</t>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>stack.push( stack.pop() | stack.pop() );</t>
-  </si>
-  <si>
-    <t>comparisons</t>
   </si>
   <si>
     <t>1D</t>
@@ -1499,7 +1496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1534,19 +1531,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1902,8 +1902,8 @@
   <sheetPr/>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2230,7 +2230,7 @@
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:8">
-      <c r="A20" s="10"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
         <v>79</v>
       </c>
@@ -2245,7 +2245,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="10"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>83</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="10"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
         <v>87</v>
       </c>
@@ -2274,8 +2274,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" ht="28.5" spans="1:8">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
         <v>91</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="10"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>95</v>
       </c>
@@ -2304,8 +2304,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" ht="28.5" spans="1:8">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
         <v>99</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="10"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
         <v>103</v>
       </c>
@@ -2334,8 +2334,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" ht="28.5" spans="1:8">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>107</v>
       </c>
@@ -2350,7 +2350,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="10"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="3" t="s">
         <v>111</v>
       </c>
@@ -2365,7 +2365,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="10"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="3" t="s">
         <v>115</v>
       </c>
@@ -2380,7 +2380,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="10"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="3" t="s">
         <v>119</v>
       </c>
@@ -2395,384 +2395,382 @@
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:8">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="G31" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="4" t="s">
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:8">
+      <c r="A32" s="16"/>
+      <c r="B32" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="1:8">
-      <c r="A32" s="15"/>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="G32" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="16" t="s">
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="16"/>
+      <c r="B33" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="15"/>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="G33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" ht="28.5" spans="1:8">
+      <c r="A34" s="16"/>
+      <c r="B34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" ht="28.5" spans="1:8">
-      <c r="A34" s="15"/>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="G34" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="4" t="s">
+    </row>
+    <row r="35" ht="28.5" spans="1:8">
+      <c r="A35" s="16"/>
+      <c r="B35" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" ht="28.5" spans="1:8">
-      <c r="A35" s="15"/>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="G35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H35" s="4" t="s">
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="16"/>
+      <c r="B36" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="15"/>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H36" s="4" t="s">
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="16"/>
+      <c r="B37" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="15"/>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="16"/>
+      <c r="B38" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="15"/>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H38" s="4" t="s">
+    </row>
+    <row r="39" ht="28.5" spans="1:8">
+      <c r="A39" s="16"/>
+      <c r="B39" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" ht="28.5" spans="1:8">
-      <c r="A39" s="15"/>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H39" s="4" t="s">
+    </row>
+    <row r="40" ht="28.5" spans="1:8">
+      <c r="A40" s="16"/>
+      <c r="B40" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="40" ht="28.5" spans="1:8">
-      <c r="A40" s="15"/>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H40" s="4" t="s">
+    </row>
+    <row r="41" ht="28.5" spans="1:8">
+      <c r="A41" s="16"/>
+      <c r="B41" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="41" ht="28.5" spans="1:8">
-      <c r="A41" s="15"/>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" ht="28.5" spans="1:8">
+      <c r="A42" s="16"/>
+      <c r="B42" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="42" ht="28.5" spans="1:8">
-      <c r="A42" s="15"/>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H42" s="4" t="s">
+    </row>
+    <row r="43" ht="28.5" spans="1:8">
+      <c r="A43" s="16"/>
+      <c r="B43" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" ht="28.5" spans="1:8">
-      <c r="A43" s="15"/>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H43" s="4" t="s">
+    </row>
+    <row r="44" ht="28.5" spans="1:8">
+      <c r="A44" s="16"/>
+      <c r="B44" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="44" ht="28.5" spans="1:8">
-      <c r="A44" s="15"/>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H44" s="4" t="s">
+    </row>
+    <row r="45" ht="28.5" spans="1:8">
+      <c r="A45" s="16"/>
+      <c r="B45" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="45" ht="28.5" spans="1:8">
-      <c r="A45" s="15"/>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G45" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H45" s="4" t="s">
+    </row>
+    <row r="46" ht="28.5" spans="1:8">
+      <c r="A46" s="16"/>
+      <c r="B46" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="46" ht="28.5" spans="1:8">
-      <c r="A46" s="15"/>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G46" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H46" s="4" t="s">
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="16"/>
+      <c r="B47" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="15"/>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="G47" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H47" s="4" t="s">
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="16"/>
+      <c r="B48" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="15"/>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="G48" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H48" s="4" t="s">
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="16"/>
+      <c r="B49" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="15"/>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="G49" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H49" s="4" t="s">
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="16"/>
+      <c r="B50" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="15"/>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="G50" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="G51" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="56" ht="28.5" spans="2:8">
       <c r="B56" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>32</v>
@@ -2781,102 +2779,102 @@
         <v>32</v>
       </c>
       <c r="G56" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G57" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G58" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="2:8">
       <c r="B60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="G60" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="2:9">
       <c r="B61" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G61" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" ht="28.5" spans="1:9">
+      <c r="A62" s="19"/>
+      <c r="B62" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I61" s="23"/>
-    </row>
-    <row r="62" ht="28.5" spans="1:9">
-      <c r="A62" s="18"/>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>32</v>
@@ -2885,20 +2883,20 @@
         <v>32</v>
       </c>
       <c r="G62" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="I62" s="24"/>
+    </row>
+    <row r="63" ht="33" customHeight="1" spans="1:9">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="I62" s="23"/>
-    </row>
-    <row r="63" ht="33" customHeight="1" spans="1:9">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20" t="s">
+      <c r="C63" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>32</v>
@@ -2907,87 +2905,85 @@
         <v>32</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H63" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="I63" s="25"/>
+    </row>
+    <row r="64" ht="28.5" spans="1:9">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I63" s="24"/>
-    </row>
-    <row r="64" ht="28.5" spans="1:9">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20" t="s">
+      <c r="C64" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G64" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H64" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="H64" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="I64" s="24"/>
+      <c r="I64" s="25"/>
     </row>
     <row r="65" ht="28.5" spans="2:9">
       <c r="B65" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="D65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="25" t="s">
+      <c r="H65" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="H65" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="I65" s="23"/>
+      <c r="I65" s="24"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="D66" s="4"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="25" t="s">
+      <c r="H66" s="27" t="s">
         <v>253</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="G67" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="H67" s="21" t="s">
-        <v>258</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A30"/>
-    <mergeCell ref="A31:A50"/>
+  <mergeCells count="1">
     <mergeCell ref="H32:H33"/>
   </mergeCells>
   <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.156944444444444" bottom="0.118055555555556" header="0.3" footer="0.118055555555556"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="293">
   <si>
     <t>TYPE</t>
   </si>
@@ -131,10 +131,10 @@
     <t>lconst</t>
   </si>
   <si>
-    <t>将常量池中以arg1为偏移量的number常量作为对象添加到堆并将堆偏移量push到栈</t>
-  </si>
-  <si>
-    <t>stack.push2( cp_pool[arg1] );</t>
+    <t>u8</t>
+  </si>
+  <si>
+    <t>stack.push2( arg1 );</t>
   </si>
   <si>
     <t>08</t>
@@ -155,7 +155,7 @@
     <t>ladd</t>
   </si>
   <si>
-    <t>将栈顶两个long相加（每个八字节）并将结果push到栈顶</t>
+    <t>将栈顶两个long相加（每个8字节）并将结果push到栈顶</t>
   </si>
   <si>
     <t>stack.push2( (stack.pop2()) + (stack.pop2() );</t>
@@ -164,6 +164,18 @@
     <t>0A</t>
   </si>
   <si>
+    <t>fadd</t>
+  </si>
+  <si>
+    <t>将栈顶两个float相加（每个8字节）并将结果push到栈顶</t>
+  </si>
+  <si>
+    <t>stack.pushf( (stack.popf()) + (stack.popf() );</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
     <t>isub</t>
   </si>
   <si>
@@ -173,7 +185,7 @@
     <t>top = stack.pop(); top_m1 = stack.pop(); stack.push(a-b);</t>
   </si>
   <si>
-    <t>0B</t>
+    <t>0C</t>
   </si>
   <si>
     <t>lsub</t>
@@ -185,7 +197,16 @@
     <t>top = stack.pop2(); top_m1 = stack.pop2(); stack.push2( top - top_m1 );</t>
   </si>
   <si>
-    <t>0C</t>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>isub的float版本</t>
+  </si>
+  <si>
+    <t>top = stack.popf(); top_m1 = stack.popf(); stack.pushf( top - top_m1 );</t>
+  </si>
+  <si>
+    <t>0E</t>
   </si>
   <si>
     <t>imul</t>
@@ -197,7 +218,7 @@
     <t>stack.push( (stack.pop()) * (stack.pop()) );</t>
   </si>
   <si>
-    <t>0D</t>
+    <t>0F</t>
   </si>
   <si>
     <t>lmul</t>
@@ -209,7 +230,19 @@
     <t>stack.push2( stack.pop2() * stack.pop2() );</t>
   </si>
   <si>
-    <t>0E</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>fmul</t>
+  </si>
+  <si>
+    <t>imul的float版本</t>
+  </si>
+  <si>
+    <t>stack.pushf( stack.popf() * stack.popf() );</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>idiv</t>
@@ -221,7 +254,7 @@
     <t>obj = stack.pop(); dvder = stack.pop(); stack.push(obj / dvder);</t>
   </si>
   <si>
-    <t>0F</t>
+    <t>12</t>
   </si>
   <si>
     <t>ldiv</t>
@@ -233,7 +266,19 @@
     <t>obj = stack.pop2(); dvder = stack.pop2(); stack.push2(obj / dvder);</t>
   </si>
   <si>
-    <t>10</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>fdiv</t>
+  </si>
+  <si>
+    <t>idiv的float版本</t>
+  </si>
+  <si>
+    <t>obj = stack.popf(); dvder = stack.popf(); stack.pushf(obj / dvder);</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>irem</t>
@@ -245,7 +290,7 @@
     <t>obj = stack.pop(); dvder = stack.pop(); stack.push(obj % dvder);</t>
   </si>
   <si>
-    <t>11</t>
+    <t>15</t>
   </si>
   <si>
     <t>lrem</t>
@@ -257,7 +302,19 @@
     <t>obj = stack.pop2(); dvder = stack.pop2(); stack.push2(obj % dvder);</t>
   </si>
   <si>
-    <t>12</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>frem</t>
+  </si>
+  <si>
+    <t>irem的float版本</t>
+  </si>
+  <si>
+    <t>obj = stack.popf(); dvder = stack.popf(); stack.pushf(obj % dvder);</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>ineg</t>
@@ -269,19 +326,31 @@
     <t>stack.push( -(stack.pop()) );</t>
   </si>
   <si>
-    <t>13</t>
+    <t>18</t>
   </si>
   <si>
     <t>lneg</t>
   </si>
   <si>
-    <t>ineg的双字版本</t>
+    <t>ineg的long版本</t>
   </si>
   <si>
     <t>stack.push2( -stack.pop2() );</t>
   </si>
   <si>
-    <t>14</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>fneg</t>
+  </si>
+  <si>
+    <t>ineg的float版本</t>
+  </si>
+  <si>
+    <t>stack.pushf( -stack.popf() );</t>
+  </si>
+  <si>
+    <t>1A</t>
   </si>
   <si>
     <t>iexp</t>
@@ -293,19 +362,31 @@
     <t>base = stack.pop(); exp = stack.pop(); stack.push(base ^ exp);</t>
   </si>
   <si>
-    <t>15</t>
+    <t>1B</t>
   </si>
   <si>
     <t>lexp</t>
   </si>
   <si>
-    <t>iexp的双字版本</t>
+    <t>iexp的long版本</t>
   </si>
   <si>
     <t>base=stack.pop2();exp=stack.pop2();stack.push2(base ^ exp);</t>
   </si>
   <si>
-    <t>16</t>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>fexp</t>
+  </si>
+  <si>
+    <t>iexp的float版本</t>
+  </si>
+  <si>
+    <t>base=stack.popf();exp=stack.popf();stack.pushf(base ^ exp);</t>
+  </si>
+  <si>
+    <t>1D</t>
   </si>
   <si>
     <t>ishl</t>
@@ -317,7 +398,7 @@
     <t>base = stack.pop(); stack.push( base &gt;&gt; (stack.pop()) );</t>
   </si>
   <si>
-    <t>17</t>
+    <t>1E</t>
   </si>
   <si>
     <t>lshl</t>
@@ -329,7 +410,7 @@
     <t>base = stack.pop2(); stack.push2( base &gt;&gt; (stack.pop2()) );</t>
   </si>
   <si>
-    <t>18</t>
+    <t>1F</t>
   </si>
   <si>
     <t>ishr</t>
@@ -341,7 +422,7 @@
     <t>base = stack.pop(); stack.push( base &lt;&lt; (stack.pop()) );</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>lshr</t>
@@ -353,7 +434,7 @@
     <t>base = stack.pop2(); stack.push2( base &lt;&lt; (stack.pop2()) );</t>
   </si>
   <si>
-    <t>1A</t>
+    <t>21</t>
   </si>
   <si>
     <t>ixnd</t>
@@ -365,7 +446,7 @@
     <t>stack.push( stack.pop() &amp; stack.pop() );</t>
   </si>
   <si>
-    <t>1B</t>
+    <t>22</t>
   </si>
   <si>
     <t>lxnd</t>
@@ -377,7 +458,7 @@
     <t>stack.push( stack.pop2() &amp; stack.pop2() );</t>
   </si>
   <si>
-    <t>1C</t>
+    <t>23</t>
   </si>
   <si>
     <t>ixor</t>
@@ -389,7 +470,7 @@
     <t>stack.push( stack.pop() | stack.pop() );</t>
   </si>
   <si>
-    <t>1D</t>
+    <t>24</t>
   </si>
   <si>
     <t>lxor</t>
@@ -401,7 +482,7 @@
     <t>stack.push( stack.pop2() | stack.pop2() );</t>
   </si>
   <si>
-    <t>1E</t>
+    <t>25</t>
   </si>
   <si>
     <t>bnd</t>
@@ -413,7 +494,7 @@
     <t>特殊实现：栈一个格4byte，前两byte存两个bool进行运算，第三个格为00时与运算，为01时或运算，第四个废弃</t>
   </si>
   <si>
-    <t>1F</t>
+    <t>26</t>
   </si>
   <si>
     <t>bor</t>
@@ -422,7 +503,7 @@
     <t>将栈顶两数按bool或</t>
   </si>
   <si>
-    <t>20</t>
+    <t>27</t>
   </si>
   <si>
     <t>icmp</t>
@@ -434,19 +515,31 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); stack.push( (a1 == a2) ? 0 :  ( (a1&lt;a2) ? -1 : 1 ) );</t>
   </si>
   <si>
-    <t>21</t>
+    <t>28</t>
   </si>
   <si>
     <t>lcmp</t>
   </si>
   <si>
-    <t>icmp的双字版本</t>
-  </si>
-  <si>
-    <t>a1 = stack.pop2(); a2 = stack.pop2(); stack.push( (a1 == a2) ? 0 :  ( (a1&lt;a2) ? -1 : 1 ) );</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>icmp的long版本</t>
+  </si>
+  <si>
+    <t>a1 = stack.pop2(); a2 = stack.pop2(); stack.push2( (a1 == a2) ? 0 :  ( (a1&lt;a2) ? -1 : 1 ) );</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>fcmp</t>
+  </si>
+  <si>
+    <t>icmp的float版本</t>
+  </si>
+  <si>
+    <t>a1 = stack.popf(); a2 = stack.popf(); stack.pushf( (a1 == a2) ? 0 :  ( (a1&lt;a2) ? -1 : 1 ) );</t>
+  </si>
+  <si>
+    <t>2A</t>
   </si>
   <si>
     <t>goto</t>
@@ -458,7 +551,7 @@
     <t>jmp( startadr + arg1 );</t>
   </si>
   <si>
-    <t>23</t>
+    <t>2B</t>
   </si>
   <si>
     <t>goto_w</t>
@@ -470,7 +563,7 @@
     <t>ljmp( startadr + arg1 );</t>
   </si>
   <si>
-    <t>24</t>
+    <t>2C</t>
   </si>
   <si>
     <t>goto_o</t>
@@ -485,7 +578,7 @@
     <t>jmp( current + arg1 );</t>
   </si>
   <si>
-    <t>25</t>
+    <t>2D</t>
   </si>
   <si>
     <t>ifeq</t>
@@ -497,7 +590,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1==a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>26</t>
+    <t>2E</t>
   </si>
   <si>
     <t>ifeq_w</t>
@@ -509,7 +602,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1==a2){ ljmp(current+arg1); }</t>
   </si>
   <si>
-    <t>27</t>
+    <t>2F</t>
   </si>
   <si>
     <t>ifne</t>
@@ -518,7 +611,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1!=a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>28</t>
+    <t>30</t>
   </si>
   <si>
     <t>ifne_w</t>
@@ -530,7 +623,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1!=a2){ ljmp(current+arg1); }</t>
   </si>
   <si>
-    <t>29</t>
+    <t>31</t>
   </si>
   <si>
     <t>iflt</t>
@@ -542,7 +635,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&lt;a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>2A</t>
+    <t>32</t>
   </si>
   <si>
     <t>ifle</t>
@@ -554,7 +647,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&lt;=a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>2B</t>
+    <t>33</t>
   </si>
   <si>
     <t>ifgt</t>
@@ -566,7 +659,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&gt;a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>2C</t>
+    <t>34</t>
   </si>
   <si>
     <t>ifge</t>
@@ -578,7 +671,7 @@
     <t>a1 = stack.pop(); a2 = stack.pop(); if(a1&gt;=a2){ jmp(current+arg1); }</t>
   </si>
   <si>
-    <t>2D</t>
+    <t>35</t>
   </si>
   <si>
     <t>ifnull</t>
@@ -590,7 +683,7 @@
     <t>base = stack.pop(); stack.push( base == 1 | base == null );</t>
   </si>
   <si>
-    <t>2E</t>
+    <t>36</t>
   </si>
   <si>
     <t>lifnull</t>
@@ -602,7 +695,7 @@
     <t>base = heap[stack.pop()]; stack.push( base==1 | base==null );</t>
   </si>
   <si>
-    <t>2F</t>
+    <t>37</t>
   </si>
   <si>
     <t>ret</t>
@@ -614,16 +707,22 @@
     <t>jmp(ret_address);</t>
   </si>
   <si>
-    <t>30</t>
+    <t>38</t>
   </si>
   <si>
     <t>tswitch</t>
   </si>
   <si>
-    <t>tableswitch，</t>
-  </si>
-  <si>
-    <t>31</t>
+    <t>arg1：u2
+arg2：u2
+arg3：u2
+arg4：u1</t>
+  </si>
+  <si>
+    <t>将arg1作为最低case，arg2作为最高case，arg3为第一个匹配项的值，arg4作为公差</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>lswitch</t>
@@ -632,16 +731,16 @@
     <t>lookupswitch</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
   </si>
   <si>
     <t>pconst</t>
@@ -653,7 +752,7 @@
     <t>stack.push( cp_pool[arg1] );</t>
   </si>
   <si>
-    <t>36</t>
+    <t>3E</t>
   </si>
   <si>
     <t>sconst</t>
@@ -665,7 +764,7 @@
     <t>localvar[arg2] = cp_pool[arg1];</t>
   </si>
   <si>
-    <t>37</t>
+    <t>3F</t>
   </si>
   <si>
     <t>push</t>
@@ -677,7 +776,7 @@
     <t xml:space="preserve">stack.push( local[var2] ); </t>
   </si>
   <si>
-    <t>38</t>
+    <t>40</t>
   </si>
   <si>
     <t>pop</t>
@@ -689,7 +788,7 @@
     <t>localvar[arg1] = stack.pop();</t>
   </si>
   <si>
-    <t>39</t>
+    <t>41</t>
   </si>
   <si>
     <t>pop2</t>
@@ -701,9 +800,6 @@
     <t>localvar[arg1] = stack.pop2();</t>
   </si>
   <si>
-    <t>3A</t>
-  </si>
-  <si>
     <t>dup</t>
   </si>
   <si>
@@ -713,9 +809,6 @@
     <t>t1 = stack.pop(); t2 = stack.pop(); stack.push(t1); stack.push(t2);</t>
   </si>
   <si>
-    <t>3B</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -725,9 +818,6 @@
     <t>ret_address = current;  stack.push( call(cp_pool[arg1], "_init", stack );</t>
   </si>
   <si>
-    <t>3C</t>
-  </si>
-  <si>
     <t>newarr</t>
   </si>
   <si>
@@ -737,18 +827,12 @@
     <t>ret_address = current;  stack.push( call(cp_pool + "$array", "_init", stack );</t>
   </si>
   <si>
-    <t>3D</t>
-  </si>
-  <si>
     <t>call</t>
   </si>
   <si>
     <t>ret_address = current;  stack.push( call(cp_pool[arg1], cp_pool[arg2], stack );</t>
   </si>
   <si>
-    <t>3E</t>
-  </si>
-  <si>
     <t>getField</t>
   </si>
   <si>
@@ -758,9 +842,6 @@
     <t>obj = stack.pop(); stack.push( obj.fields[arg1] );</t>
   </si>
   <si>
-    <t>3F</t>
-  </si>
-  <si>
     <t>putField</t>
   </si>
   <si>
@@ -770,9 +851,6 @@
     <t>obj = stack.pop(); obj.fields[arg1] = stack.pop();</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>sp_enter</t>
   </si>
   <si>
@@ -782,9 +860,6 @@
     <t xml:space="preserve">-  </t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>sp_quit</t>
   </si>
   <si>
@@ -792,6 +867,39 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>一些声明</t>
+  </si>
+  <si>
+    <t>伪代码栏中，含有stack,call等变量、函数，这是必须说明的</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>stack.pop()/stack.push() 返回/推入栈顶值</t>
+  </si>
+  <si>
+    <t>stack.pop2()/stack.push2() 返回/推入栈顶一个双字</t>
+  </si>
+  <si>
+    <t>stack.popf()/stack.pushf() 返回/推入栈顶一个float</t>
+  </si>
+  <si>
+    <t>调用一个方法，第一个参数为类名，第二个为方法名，第三个为存放参数的栈</t>
+  </si>
+  <si>
+    <t>jmp</t>
+  </si>
+  <si>
+    <t>以第一个参数为偏移量转到字节码区相应的位置（参数为u2）</t>
+  </si>
+  <si>
+    <t>ljmp</t>
+  </si>
+  <si>
+    <t>以第一个参数为偏移量转到字节码区相应的位置（参数为u4）</t>
   </si>
 </sst>
 </file>
@@ -799,10 +907,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1351,7 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1360,10 +1468,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1372,7 +1480,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1496,7 +1604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1552,7 +1660,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1563,23 +1671,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1900,10 +2017,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2070,10 +2187,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>38</v>
@@ -2109,12 +2226,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2139,7 +2256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" ht="28.5" spans="1:8">
       <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>55</v>
@@ -2154,290 +2271,292 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" ht="28.5" spans="1:8">
       <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="G16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:8">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="G17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" spans="1:8">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="G18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:8">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="G19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:8">
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:8">
       <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="G20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" ht="28.5" spans="1:8">
       <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="G21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" ht="28.5" spans="1:8">
       <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="G22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" ht="28.5" spans="1:8">
       <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" ht="28.5" spans="1:8">
       <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="G24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="G25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="G26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="G27" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="15"/>
       <c r="B28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="15"/>
       <c r="B29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="G30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:8">
       <c r="A31" s="16"/>
       <c r="B31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="G31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:8">
       <c r="A32" s="16"/>
       <c r="B32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="G32" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="16"/>
       <c r="B33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="G33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" ht="28.5" spans="1:8">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="16"/>
       <c r="B34" s="3" t="s">
         <v>134</v>
@@ -2452,7 +2571,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" ht="28.5" spans="1:8">
+    <row r="35" spans="1:8">
       <c r="A35" s="16"/>
       <c r="B35" s="3" t="s">
         <v>138</v>
@@ -2475,9 +2594,6 @@
       <c r="C36" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G36" s="4" t="s">
         <v>144</v>
       </c>
@@ -2493,9 +2609,6 @@
       <c r="C37" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G37" s="4" t="s">
         <v>148</v>
       </c>
@@ -2511,152 +2624,131 @@
       <c r="C38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="39" ht="28.5" spans="1:8">
       <c r="A39" s="16"/>
       <c r="B39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="G39" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" ht="28.5" spans="1:8">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="16"/>
       <c r="B40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="G40" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="41" ht="28.5" spans="1:8">
       <c r="A41" s="16"/>
       <c r="B41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="H41" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:8">
       <c r="A42" s="16"/>
       <c r="B42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="G42" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="43" ht="28.5" spans="1:8">
       <c r="A43" s="16"/>
       <c r="B43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="G43" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" ht="28.5" spans="1:8">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="16"/>
       <c r="B44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" ht="28.5" spans="1:8">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="16"/>
       <c r="B45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" ht="28.5" spans="1:8">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="16"/>
       <c r="B46" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>184</v>
@@ -2665,7 +2757,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" ht="28.5" spans="1:8">
       <c r="A47" s="16"/>
       <c r="B47" s="3" t="s">
         <v>186</v>
@@ -2673,6 +2765,9 @@
       <c r="C47" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="D47" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G47" s="4" t="s">
         <v>188</v>
       </c>
@@ -2680,7 +2775,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" ht="28.5" spans="1:8">
       <c r="A48" s="16"/>
       <c r="B48" s="3" t="s">
         <v>190</v>
@@ -2688,6 +2783,9 @@
       <c r="C48" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="D48" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G48" s="4" t="s">
         <v>192</v>
       </c>
@@ -2695,7 +2793,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" ht="28.5" spans="1:8">
       <c r="A49" s="16"/>
       <c r="B49" s="3" t="s">
         <v>194</v>
@@ -2703,192 +2801,189 @@
       <c r="C49" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="D49" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+    </row>
+    <row r="50" ht="28.5" spans="1:8">
       <c r="A50" s="16"/>
       <c r="B50" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" ht="28.5" spans="2:8">
       <c r="B51" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="D51" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G51" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
+      <c r="H51" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" ht="28.5" spans="2:8">
       <c r="B52" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
+        <v>205</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" ht="28.5" spans="2:8">
       <c r="B53" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
+        <v>209</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" ht="28.5" spans="2:8">
       <c r="B54" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>209</v>
+        <v>218</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" ht="28.5" spans="2:8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="1" spans="2:8">
       <c r="B57" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" ht="57" customHeight="1" spans="2:7">
       <c r="B58" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
       <c r="G58" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D59" s="18"/>
       <c r="G59" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" ht="28.5" spans="2:8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
       <c r="B60" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" ht="28.5" spans="2:9">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I61" s="24"/>
-    </row>
-    <row r="62" ht="28.5" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="19"/>
       <c r="B62" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H62" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I62" s="24"/>
+      <c r="I62" s="23"/>
     </row>
     <row r="63" ht="33" customHeight="1" spans="1:9">
       <c r="A63" s="20"/>
@@ -2901,90 +2996,303 @@
       <c r="D63" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H63" s="22" t="s">
+      <c r="G63" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="I63" s="25"/>
+      <c r="H63" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I63" s="24"/>
     </row>
     <row r="64" ht="28.5" spans="1:9">
       <c r="A64" s="20"/>
       <c r="B64" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E64" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G64" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H64" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="I64" s="25"/>
-    </row>
-    <row r="65" ht="28.5" spans="2:9">
+      <c r="H64" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I64" s="24"/>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C65" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="C65" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="H65" s="27" t="s">
+      <c r="G65" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="I65" s="24"/>
+      <c r="H65" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I65" s="23"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C66" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="26" t="s">
+      <c r="C66" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H66" s="27" t="s">
+      <c r="D66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>253</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H67" s="22" t="s">
         <v>257</v>
       </c>
+      <c r="H67" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" ht="28.5" spans="3:8">
+      <c r="C68" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" ht="28.5" spans="3:8">
+      <c r="C69" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" ht="28.5" spans="3:8">
+      <c r="C70" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" ht="28.5" spans="3:8">
+      <c r="C71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" ht="28.5" spans="3:8">
+      <c r="C72" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" ht="28.5" spans="3:8">
+      <c r="C73" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8">
+      <c r="C74" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="C75" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="3:8">
+      <c r="C79" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="3:8">
+      <c r="C80" s="10"/>
+      <c r="D80" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81" s="10"/>
+      <c r="D81" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="3:8">
+      <c r="C82" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="C83" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="3:8">
+      <c r="C85" s="29"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H32:H33"/>
+  <mergeCells count="10">
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="C79:C81"/>
   </mergeCells>
   <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.156944444444444" bottom="0.118055555555556" header="0.3" footer="0.118055555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
